--- a/sriramModel-nelson-atypical-patientID_19-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_19-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.89142111442404</v>
+        <v>16.63251937892451</v>
       </c>
       <c r="C2">
-        <v>16.80413680352148</v>
+        <v>16.89843205168584</v>
       </c>
       <c r="D2">
-        <v>16.9109898946842</v>
+        <v>16.84927862656279</v>
       </c>
       <c r="E2">
-        <v>16.97686766148437</v>
+        <v>16.63564642415056</v>
       </c>
       <c r="F2">
-        <v>16.94484518493476</v>
+        <v>16.67347473144789</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.10195106084934</v>
+        <v>16.5670604885693</v>
       </c>
       <c r="C3">
-        <v>16.89917854592755</v>
+        <v>17.13152680597108</v>
       </c>
       <c r="D3">
-        <v>17.11893637808219</v>
+        <v>17.03393219366374</v>
       </c>
       <c r="E3">
-        <v>17.30613956753474</v>
+        <v>16.57318512153656</v>
       </c>
       <c r="F3">
-        <v>17.23339755675179</v>
+        <v>16.65077836621162</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.31591166767279</v>
+        <v>16.50361751120702</v>
       </c>
       <c r="C4">
-        <v>16.98530773100058</v>
+        <v>17.39554193868586</v>
       </c>
       <c r="D4">
-        <v>17.31679450242095</v>
+        <v>17.25087916391798</v>
       </c>
       <c r="E4">
-        <v>17.67687526930304</v>
+        <v>16.5126094728123</v>
       </c>
       <c r="F4">
-        <v>17.53384207882171</v>
+        <v>16.63158662827542</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.51337041263799</v>
+        <v>16.4421845988266</v>
       </c>
       <c r="C5">
-        <v>17.06271686685765</v>
+        <v>17.67321529806346</v>
       </c>
       <c r="D5">
-        <v>17.4955217531124</v>
+        <v>17.48967219039357</v>
       </c>
       <c r="E5">
-        <v>18.01281925066893</v>
+        <v>16.45391292077333</v>
       </c>
       <c r="F5">
-        <v>17.79237304295802</v>
+        <v>16.61559320670338</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.67599689959798</v>
+        <v>16.38275592485257</v>
       </c>
       <c r="C6">
-        <v>17.13160846857878</v>
+        <v>17.91432853757024</v>
       </c>
       <c r="D6">
-        <v>17.64619619441996</v>
+        <v>17.72288065759367</v>
       </c>
       <c r="E6">
-        <v>18.16988789634879</v>
+        <v>16.39708901179577</v>
       </c>
       <c r="F6">
-        <v>17.96415479112425</v>
+        <v>16.60250993723207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.79418830016235</v>
+        <v>16.32532568306398</v>
       </c>
       <c r="C7">
-        <v>17.19219488617377</v>
+        <v>18.05842772028613</v>
       </c>
       <c r="D7">
-        <v>17.76311892722265</v>
+        <v>17.90667211885067</v>
       </c>
       <c r="E7">
-        <v>18.18989903597263</v>
+        <v>16.34213138954047</v>
       </c>
       <c r="F7">
-        <v>18.0491963561204</v>
+        <v>16.59206629297176</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.8692419519862</v>
+        <v>16.26988808650666</v>
       </c>
       <c r="C8">
-        <v>17.24469841662991</v>
+        <v>18.1090577398031</v>
       </c>
       <c r="D8">
-        <v>17.84576642323892</v>
+        <v>18.01360055894499</v>
       </c>
       <c r="E8">
-        <v>18.16981480758416</v>
+        <v>16.28903378918121</v>
       </c>
       <c r="F8">
-        <v>18.07653945547379</v>
+        <v>16.58400854998697</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.90939835679927</v>
+        <v>16.21643736607817</v>
       </c>
       <c r="C9">
-        <v>17.2893513658597</v>
+        <v>18.11012338629457</v>
       </c>
       <c r="D9">
-        <v>17.89813659452808</v>
+        <v>18.05563458166406</v>
       </c>
       <c r="E9">
-        <v>18.14069117935826</v>
+        <v>16.23779003253892</v>
       </c>
       <c r="F9">
-        <v>18.07294843023744</v>
+        <v>16.57809937301376</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.92447980514357</v>
+        <v>16.16496776919527</v>
       </c>
       <c r="C10">
-        <v>17.32639606194703</v>
+        <v>18.09108836685282</v>
       </c>
       <c r="D10">
-        <v>17.92641807268875</v>
+        <v>18.05962284143006</v>
       </c>
       <c r="E10">
-        <v>18.10941006285447</v>
+        <v>16.18839402707153</v>
       </c>
       <c r="F10">
-        <v>18.05414244408604</v>
+        <v>16.57411724000431</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.92277031307142</v>
+        <v>16.1154735586083</v>
       </c>
       <c r="C11">
-        <v>17.35608485246668</v>
+        <v>18.06435519974348</v>
       </c>
       <c r="D11">
-        <v>17.93684208104932</v>
+        <v>18.0448210572955</v>
       </c>
       <c r="E11">
-        <v>18.0775524389274</v>
+        <v>16.14083975600532</v>
       </c>
       <c r="F11">
-        <v>18.02798134136565</v>
+        <v>16.57185572297686</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.91022415329451</v>
+        <v>16.06794901126391</v>
       </c>
       <c r="C12">
-        <v>17.37868008053605</v>
+        <v>18.03459165992436</v>
       </c>
       <c r="D12">
-        <v>17.93457859744939</v>
+        <v>18.02119785323019</v>
       </c>
       <c r="E12">
-        <v>18.04552341659459</v>
+        <v>16.09512127393226</v>
       </c>
       <c r="F12">
-        <v>17.99821799326955</v>
+        <v>16.57112268470938</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.89078923479247</v>
+        <v>16.02238841694523</v>
       </c>
       <c r="C13">
-        <v>17.39445401926286</v>
+        <v>18.00357261702579</v>
       </c>
       <c r="D13">
-        <v>17.92349529455468</v>
+        <v>17.99340787846936</v>
       </c>
       <c r="E13">
-        <v>18.01343832550396</v>
+        <v>16.0512327048425</v>
       </c>
       <c r="F13">
-        <v>17.96664764760256</v>
+        <v>16.57173955138249</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.86698387177056</v>
+        <v>15.97878607814165</v>
       </c>
       <c r="C14">
-        <v>17.40368873203528</v>
+        <v>17.97200435583979</v>
       </c>
       <c r="D14">
-        <v>17.90632906119193</v>
+        <v>17.96359301660561</v>
       </c>
       <c r="E14">
-        <v>17.98133352445453</v>
+        <v>16.00916823978187</v>
       </c>
       <c r="F14">
-        <v>17.934147341814</v>
+        <v>16.57354063526117</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.84039014847816</v>
+        <v>15.93713630759611</v>
       </c>
       <c r="C15">
-        <v>17.40667585910266</v>
+        <v>17.9401824734736</v>
       </c>
       <c r="D15">
-        <v>17.88496361801202</v>
+        <v>17.93275877067817</v>
       </c>
       <c r="E15">
-        <v>17.94922126090934</v>
+        <v>15.96892213291484</v>
       </c>
       <c r="F15">
-        <v>17.90115804886398</v>
+        <v>16.57637242258471</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.81199996910994</v>
+        <v>15.89743342710518</v>
       </c>
       <c r="C16">
-        <v>17.40371628485672</v>
+        <v>17.90823868522142</v>
       </c>
       <c r="D16">
-        <v>17.86068161302844</v>
+        <v>17.90139246229842</v>
       </c>
       <c r="E16">
-        <v>17.91710613548832</v>
+        <v>15.93048869746753</v>
       </c>
       <c r="F16">
-        <v>17.86790797294292</v>
+        <v>16.58009283363802</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.78243870802441</v>
+        <v>15.85967176633158</v>
       </c>
       <c r="C17">
-        <v>17.39511964566654</v>
+        <v>17.87623333149944</v>
       </c>
       <c r="D17">
-        <v>17.83435509724897</v>
+        <v>17.86973868132858</v>
       </c>
       <c r="E17">
-        <v>17.88499009759763</v>
+        <v>15.89386230311601</v>
       </c>
       <c r="F17">
-        <v>17.83451882331402</v>
+        <v>16.58457052453592</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.75210453161089</v>
+        <v>15.82384566134587</v>
       </c>
       <c r="C18">
-        <v>17.38120355107353</v>
+        <v>17.84419581392186</v>
       </c>
       <c r="D18">
-        <v>17.80657983125039</v>
+        <v>17.83792459120965</v>
       </c>
       <c r="E18">
-        <v>17.85287375453315</v>
+        <v>15.85903737254067</v>
       </c>
       <c r="F18">
-        <v>17.8010574214918</v>
+        <v>16.58968416823659</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.72125400136095</v>
+        <v>15.78994945269099</v>
       </c>
       <c r="C19">
-        <v>17.36229261811837</v>
+        <v>17.81214075042619</v>
       </c>
       <c r="D19">
-        <v>17.77776603597597</v>
+        <v>17.80601835889067</v>
       </c>
       <c r="E19">
-        <v>17.82075732423688</v>
+        <v>15.82600838024076</v>
       </c>
       <c r="F19">
-        <v>17.76756154434283</v>
+        <v>16.5953218741858</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.69005460778209</v>
+        <v>15.75797748307035</v>
       </c>
       <c r="C20">
-        <v>17.33871714836668</v>
+        <v>17.78007616002003</v>
       </c>
       <c r="D20">
-        <v>17.7481990133945</v>
+        <v>17.77405770088171</v>
       </c>
       <c r="E20">
-        <v>17.78864088527931</v>
+        <v>15.79476984825036</v>
       </c>
       <c r="F20">
-        <v>17.73405290309065</v>
+        <v>16.60138040714389</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.65861713919105</v>
+        <v>15.72792409472053</v>
       </c>
       <c r="C21">
-        <v>17.31081140220895</v>
+        <v>17.74800611928366</v>
       </c>
       <c r="D21">
-        <v>17.71807930496436</v>
+        <v>17.74206410752387</v>
       </c>
       <c r="E21">
-        <v>17.7565249203948</v>
+        <v>15.76531634555642</v>
       </c>
       <c r="F21">
-        <v>17.70054440796628</v>
+        <v>16.60776480355977</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.62701592699275</v>
+        <v>15.69978362656904</v>
       </c>
       <c r="C22">
-        <v>17.2789114632909</v>
+        <v>17.71593290754437</v>
       </c>
       <c r="D22">
-        <v>17.6875494251172</v>
+        <v>17.71005022514274</v>
       </c>
       <c r="E22">
-        <v>17.72440938572085</v>
+        <v>15.73764248544274</v>
       </c>
       <c r="F22">
-        <v>17.66704384211096</v>
+        <v>16.6143877225499</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.59530151322252</v>
+        <v>15.67355041043037</v>
       </c>
       <c r="C23">
-        <v>17.2433526732313</v>
+        <v>17.68385788293823</v>
       </c>
       <c r="D23">
-        <v>17.65671174582629</v>
+        <v>17.67802353002772</v>
       </c>
       <c r="E23">
-        <v>17.69229409411714</v>
+        <v>15.71174292281367</v>
       </c>
       <c r="F23">
-        <v>17.63355604219383</v>
+        <v>16.62116890067368</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.56350860976382</v>
+        <v>15.64921876825279</v>
       </c>
       <c r="C24">
-        <v>17.20446668083587</v>
+        <v>17.65178187252239</v>
       </c>
       <c r="D24">
-        <v>17.62564087276041</v>
+        <v>17.64598858740165</v>
       </c>
       <c r="E24">
-        <v>17.66017907274178</v>
+        <v>15.68761235275267</v>
       </c>
       <c r="F24">
-        <v>17.60008408439857</v>
+        <v>16.62803463690251</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.53166142757226</v>
+        <v>15.62678300521713</v>
       </c>
       <c r="C25">
-        <v>17.16257809759699</v>
+        <v>17.61970536215288</v>
       </c>
       <c r="D25">
-        <v>17.59439147903709</v>
+        <v>17.6139483264561</v>
       </c>
       <c r="E25">
-        <v>17.62806439400957</v>
+        <v>15.6652455078636</v>
       </c>
       <c r="F25">
-        <v>17.56662993045834</v>
+        <v>16.63491731282324</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>17.49977702739103</v>
+        <v>15.60623740644654</v>
       </c>
       <c r="C26">
-        <v>17.11800106050427</v>
+        <v>17.58762864287725</v>
       </c>
       <c r="D26">
-        <v>17.56300406697984</v>
+        <v>17.58190463765591</v>
       </c>
       <c r="E26">
-        <v>17.59595005327039</v>
+        <v>15.64463715632853</v>
       </c>
       <c r="F26">
-        <v>17.53319482676414</v>
+        <v>16.64175495804614</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>17.46786755588984</v>
+        <v>15.58757622861985</v>
       </c>
       <c r="C27">
-        <v>17.07103580968136</v>
+        <v>17.55555186753635</v>
       </c>
       <c r="D27">
-        <v>17.53150902127938</v>
+        <v>17.5498587025248</v>
       </c>
       <c r="E27">
-        <v>17.5638360204325</v>
+        <v>15.62578209981915</v>
       </c>
       <c r="F27">
-        <v>17.49977961182068</v>
+        <v>16.64849085400941</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>17.43594177472075</v>
+        <v>15.57079369155037</v>
       </c>
       <c r="C28">
-        <v>17.02196545731602</v>
+        <v>17.5234751522082</v>
       </c>
       <c r="D28">
-        <v>17.49992933794049</v>
+        <v>17.51781126536204</v>
       </c>
       <c r="E28">
-        <v>17.53172228529428</v>
+        <v>15.60867517151209</v>
       </c>
       <c r="F28">
-        <v>17.46638488736278</v>
+        <v>16.65507313648365</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>17.40400609782703</v>
+        <v>15.55588397242271</v>
       </c>
       <c r="C29">
-        <v>16.97105324806142</v>
+        <v>17.49139859552473</v>
       </c>
       <c r="D29">
-        <v>17.46828252260005</v>
+        <v>17.48576284662206</v>
       </c>
       <c r="E29">
-        <v>17.49960886041932</v>
+        <v>15.5933112340744</v>
       </c>
       <c r="F29">
-        <v>17.43301107631652</v>
+        <v>16.66145442788405</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>17.3720652217457</v>
+        <v>15.54284119094654</v>
       </c>
       <c r="C30">
-        <v>16.91854047466082</v>
+        <v>17.45932225612335</v>
       </c>
       <c r="D30">
-        <v>17.43658203630877</v>
+        <v>17.45371380674685</v>
       </c>
       <c r="E30">
-        <v>17.46749576166357</v>
+        <v>15.57968517744177</v>
       </c>
       <c r="F30">
-        <v>17.39965846381188</v>
+        <v>16.6675914991758</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>17.34012261712493</v>
+        <v>15.5316593994719</v>
       </c>
       <c r="C31">
-        <v>16.86464517783287</v>
+        <v>17.42724616062623</v>
       </c>
       <c r="D31">
-        <v>17.40483837597567</v>
+        <v>17.42166441842024</v>
       </c>
       <c r="E31">
-        <v>17.43538299871311</v>
+        <v>15.56779191662665</v>
       </c>
       <c r="F31">
-        <v>17.36632723804542</v>
+        <v>16.67344495891297</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>17.30818089228066</v>
+        <v>15.52233256952065</v>
       </c>
       <c r="C32">
-        <v>16.80956170499462</v>
+        <v>17.39517032703928</v>
       </c>
       <c r="D32">
-        <v>17.3730597898705</v>
+        <v>17.38961491632949</v>
       </c>
       <c r="E32">
-        <v>17.4032705769349</v>
+        <v>15.5576263892686</v>
       </c>
       <c r="F32">
-        <v>17.3330175266837</v>
+        <v>16.67897895965336</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>17.27624202557141</v>
+        <v>15.51485457091073</v>
       </c>
       <c r="C33">
-        <v>16.75346102189704</v>
+        <v>17.36309476385177</v>
       </c>
       <c r="D33">
-        <v>17.34125275663926</v>
+        <v>17.35756540845248</v>
       </c>
       <c r="E33">
-        <v>17.37115849104519</v>
+        <v>15.54918355281423</v>
       </c>
       <c r="F33">
-        <v>17.29972942526086</v>
+        <v>16.68416093899151</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>17.24430752163006</v>
+        <v>15.50921915907647</v>
       </c>
       <c r="C34">
-        <v>16.69649168410254</v>
+        <v>17.33101948353418</v>
       </c>
       <c r="D34">
-        <v>17.30942237811566</v>
+        <v>17.32551597481859</v>
       </c>
       <c r="E34">
-        <v>17.33904672831644</v>
+        <v>15.54245838224278</v>
       </c>
       <c r="F34">
-        <v>17.26646301482667</v>
+        <v>16.6889613670736</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>17.2123785342203</v>
+        <v>15.50541994745785</v>
       </c>
       <c r="C35">
-        <v>16.63878152069437</v>
+        <v>17.29894450924959</v>
       </c>
       <c r="D35">
-        <v>17.2775727189998</v>
+        <v>17.29346666372825</v>
       </c>
       <c r="E35">
-        <v>17.3069352861997</v>
+        <v>15.53744586657528</v>
       </c>
       <c r="F35">
-        <v>17.23321835998193</v>
+        <v>16.6933535162892</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>17.18045596008465</v>
+        <v>15.50345038094896</v>
       </c>
       <c r="C36">
-        <v>16.58043946567054</v>
+        <v>17.26686985388429</v>
       </c>
       <c r="D36">
-        <v>17.24570706263034</v>
+        <v>17.26141751123791</v>
       </c>
       <c r="E36">
-        <v>17.27482416566789</v>
+        <v>15.53414100583533</v>
       </c>
       <c r="F36">
-        <v>17.1999955064672</v>
+        <v>16.69731324995985</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>17.14854050507311</v>
+        <v>15.50330371627651</v>
       </c>
       <c r="C37">
-        <v>16.52155762494894</v>
+        <v>17.23479551721001</v>
       </c>
       <c r="D37">
-        <v>17.21382807937009</v>
+        <v>17.22936855692523</v>
       </c>
       <c r="E37">
-        <v>17.24271336933993</v>
+        <v>15.5325388078358</v>
       </c>
       <c r="F37">
-        <v>17.16679448780293</v>
+        <v>16.70081882837561</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>17.11663273105442</v>
+        <v>15.5049729738106</v>
       </c>
       <c r="C38">
-        <v>16.46221344525349</v>
+        <v>17.20272149788212</v>
       </c>
       <c r="D38">
-        <v>17.18193794222984</v>
+        <v>17.19731983059849</v>
       </c>
       <c r="E38">
-        <v>17.21060290024894</v>
+        <v>15.5326342833575</v>
       </c>
       <c r="F38">
-        <v>17.13361533078642</v>
+        <v>16.70385072809305</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>17.08473308060282</v>
+        <v>15.50845091064343</v>
       </c>
       <c r="C39">
-        <v>16.40247177785087</v>
+        <v>17.17064779148006</v>
       </c>
       <c r="D39">
-        <v>17.15003842280004</v>
+        <v>17.16527135893239</v>
       </c>
       <c r="E39">
-        <v>17.17849275700979</v>
+        <v>15.53442244239233</v>
       </c>
       <c r="F39">
-        <v>17.10045805847188</v>
+        <v>16.70639147854956</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>17.05284190450633</v>
+        <v>15.51372997386666</v>
       </c>
       <c r="C40">
-        <v>16.34238678684257</v>
+        <v>17.13857439934436</v>
       </c>
       <c r="D40">
-        <v>17.11813097442445</v>
+        <v>17.13322315691291</v>
       </c>
       <c r="E40">
-        <v>17.14638293830383</v>
+        <v>15.53789828882184</v>
       </c>
       <c r="F40">
-        <v>17.06732269128009</v>
+        <v>16.7084255105897</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>17.02095948720732</v>
+        <v>15.52080224172619</v>
       </c>
       <c r="C41">
-        <v>16.28200368193961</v>
+        <v>17.10650132584039</v>
       </c>
       <c r="D41">
-        <v>17.08621679223497</v>
+        <v>17.10117523326276</v>
       </c>
       <c r="E41">
-        <v>17.11427344343795</v>
+        <v>15.5430568140952</v>
       </c>
       <c r="F41">
-        <v>17.03420924697707</v>
+        <v>16.70993901559115</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>16.98908606258816</v>
+        <v>15.52965938528762</v>
       </c>
       <c r="C42">
-        <v>16.22136024322689</v>
+        <v>17.07442857362802</v>
       </c>
       <c r="D42">
-        <v>17.0542968820769</v>
+        <v>17.06912759542431</v>
       </c>
       <c r="E42">
-        <v>17.08216427225883</v>
+        <v>15.54989299226439</v>
       </c>
       <c r="F42">
-        <v>17.0011177403418</v>
+        <v>16.71091981683279</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>16.9572218245729</v>
+        <v>15.54029258482353</v>
       </c>
       <c r="C43">
-        <v>16.16048812279517</v>
+        <v>17.04235614460981</v>
       </c>
       <c r="D43">
-        <v>17.02237208632805</v>
+        <v>17.03708024896192</v>
       </c>
       <c r="E43">
-        <v>17.05005542566139</v>
+        <v>15.55840177125593</v>
       </c>
       <c r="F43">
-        <v>16.96804818387747</v>
+        <v>16.71135725102047</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>16.92536693483069</v>
+        <v>15.55269246081851</v>
       </c>
       <c r="C44">
-        <v>16.09941394729773</v>
+        <v>17.01028403823513</v>
       </c>
       <c r="D44">
-        <v>16.99044310488085</v>
+        <v>17.00503320103267</v>
       </c>
       <c r="E44">
-        <v>17.01794690404145</v>
+        <v>15.568578064102</v>
       </c>
       <c r="F44">
-        <v>16.93500058916547</v>
+        <v>16.71124205931498</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>16.89352152884507</v>
+        <v>15.56684900860127</v>
       </c>
       <c r="C45">
-        <v>16.03816026733827</v>
+        <v>16.97821225415727</v>
       </c>
       <c r="D45">
-        <v>16.95851056269311</v>
+        <v>16.97298645700106</v>
       </c>
       <c r="E45">
-        <v>16.98583870732102</v>
+        <v>15.58041674189438</v>
       </c>
       <c r="F45">
-        <v>16.90197496716071</v>
+        <v>16.71056628468213</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>16.86168572131579</v>
+        <v>15.58275147226972</v>
       </c>
       <c r="C46">
-        <v>15.97674633450346</v>
+        <v>16.94614079323105</v>
       </c>
       <c r="D46">
-        <v>16.92657494624516</v>
+        <v>16.9409400209325</v>
       </c>
       <c r="E46">
-        <v>16.95373083532488</v>
+        <v>15.59391261893747</v>
       </c>
       <c r="F46">
-        <v>16.86897132821156</v>
+        <v>16.70932318069988</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>16.82985961080311</v>
+        <v>15.60038827106532</v>
       </c>
       <c r="C47">
-        <v>15.91518873671618</v>
+        <v>16.91406965484479</v>
       </c>
       <c r="D47">
-        <v>16.89463669731157</v>
+        <v>16.9088938957272</v>
       </c>
       <c r="E47">
-        <v>16.92162328784103</v>
+        <v>15.60906044181472</v>
       </c>
       <c r="F47">
-        <v>16.83598968206634</v>
+        <v>16.70750712368778</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>16.79804328278208</v>
+        <v>15.61974686449505</v>
       </c>
       <c r="C48">
-        <v>15.853501840819</v>
+        <v>16.88199884021479</v>
       </c>
       <c r="D48">
-        <v>16.86269616794193</v>
+        <v>16.8768480829367</v>
       </c>
       <c r="E48">
-        <v>16.88951606483127</v>
+        <v>15.62585487546861</v>
       </c>
       <c r="F48">
-        <v>16.80303003793834</v>
+        <v>16.70511353221204</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>16.76623681273235</v>
+        <v>15.64081360522072</v>
       </c>
       <c r="C49">
-        <v>15.79169821525924</v>
+        <v>16.8499283484006</v>
       </c>
       <c r="D49">
-        <v>16.83075366683667</v>
+        <v>16.84480258426174</v>
       </c>
       <c r="E49">
-        <v>16.8574091664592</v>
+        <v>15.64429048161422</v>
       </c>
       <c r="F49">
-        <v>16.77009240472663</v>
+        <v>16.70213879213115</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>16.73444026679103</v>
+        <v>15.66357363483033</v>
       </c>
       <c r="C50">
-        <v>15.72978898845404</v>
+        <v>16.81785818046874</v>
       </c>
       <c r="D50">
-        <v>16.7988094589617</v>
+        <v>16.81275740115265</v>
       </c>
       <c r="E50">
-        <v>16.82530259280322</v>
+        <v>15.66436170336743</v>
       </c>
       <c r="F50">
-        <v>16.7371767909983</v>
+        <v>16.69858018684519</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>16.70265370764903</v>
+        <v>15.68801066409038</v>
       </c>
       <c r="C51">
-        <v>15.66778411865818</v>
+        <v>16.78578833560005</v>
       </c>
       <c r="D51">
-        <v>16.76686377275088</v>
+        <v>16.78071253509525</v>
       </c>
       <c r="E51">
-        <v>16.79319634389706</v>
+        <v>15.68606283819235</v>
       </c>
       <c r="F51">
-        <v>16.70428320529081</v>
+        <v>16.69443583120673</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>16.67087719043682</v>
+        <v>15.71410681410857</v>
       </c>
       <c r="C52">
-        <v>15.60569260434675</v>
+        <v>16.75371881448929</v>
       </c>
       <c r="D52">
-        <v>16.73491681608381</v>
+        <v>16.74866798736108</v>
       </c>
       <c r="E52">
-        <v>16.76109041972066</v>
+        <v>15.7093880061055</v>
       </c>
       <c r="F52">
-        <v>16.67141165584772</v>
+        <v>16.6897046108985</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>16.63911076329654</v>
+        <v>15.74184242625619</v>
       </c>
       <c r="C53">
-        <v>15.55004487620051</v>
+        <v>16.72164961691055</v>
       </c>
       <c r="D53">
-        <v>16.70296875981479</v>
+        <v>16.71662375880713</v>
       </c>
       <c r="E53">
-        <v>16.72898482022118</v>
+        <v>15.73433112653743</v>
       </c>
       <c r="F53">
-        <v>16.63856215096896</v>
+        <v>16.68438612640922</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>16.60735447248094</v>
+        <v>15.77119577612434</v>
       </c>
       <c r="C54">
-        <v>15.50584273727644</v>
+        <v>16.689580743128</v>
       </c>
       <c r="D54">
-        <v>16.67101975383786</v>
+        <v>16.68457985013864</v>
       </c>
       <c r="E54">
-        <v>16.69687954541203</v>
+        <v>15.76088586777075</v>
       </c>
       <c r="F54">
-        <v>16.60573469882245</v>
+        <v>16.67848063792843</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>16.5756083610941</v>
+        <v>15.80214289171025</v>
       </c>
       <c r="C55">
-        <v>15.47158019264434</v>
+        <v>16.6575121933502</v>
       </c>
       <c r="D55">
-        <v>16.63906993113086</v>
+        <v>16.65253626183774</v>
       </c>
       <c r="E55">
-        <v>16.66477459531871</v>
+        <v>15.7890455992854</v>
       </c>
       <c r="F55">
-        <v>16.57292930758768</v>
+        <v>16.67198901247883</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>16.54387246970959</v>
+        <v>15.83465722047123</v>
       </c>
       <c r="C56">
-        <v>15.44624529503511</v>
+        <v>16.62544396761184</v>
       </c>
       <c r="D56">
-        <v>16.60711940841923</v>
+        <v>16.62049299438878</v>
       </c>
       <c r="E56">
-        <v>16.63266996996806</v>
+        <v>15.81880335186767</v>
       </c>
       <c r="F56">
-        <v>16.54014598538767</v>
+        <v>16.66491267294236</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>16.51214683681056</v>
+        <v>15.8687093117278</v>
       </c>
       <c r="C57">
-        <v>15.42906231564316</v>
+        <v>16.59337606610887</v>
       </c>
       <c r="D57">
-        <v>16.57516828646776</v>
+        <v>16.58845004825146</v>
       </c>
       <c r="E57">
-        <v>16.6005656693842</v>
+        <v>15.85015172454919</v>
       </c>
       <c r="F57">
-        <v>16.50738474036499</v>
+        <v>16.65725356378169</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>16.48043149915924</v>
+        <v>15.90426656289624</v>
       </c>
       <c r="C58">
-        <v>15.4193942330933</v>
+        <v>16.5613084888645</v>
       </c>
       <c r="D58">
-        <v>16.54321665511445</v>
+        <v>16.55640742381852</v>
       </c>
       <c r="E58">
-        <v>16.568461693567</v>
+        <v>15.8830828221873</v>
       </c>
       <c r="F58">
-        <v>16.47464558062968</v>
+        <v>16.64901408850356</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>16.44872649208143</v>
+        <v>15.94129273416028</v>
       </c>
       <c r="C59">
-        <v>15.41669595501014</v>
+        <v>16.52924123588483</v>
       </c>
       <c r="D59">
-        <v>16.51126459380437</v>
+        <v>16.52436512145199</v>
       </c>
       <c r="E59">
-        <v>16.53635804253684</v>
+        <v>15.9175881584919</v>
       </c>
       <c r="F59">
-        <v>16.44192851431719</v>
+        <v>16.64019710226147</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>16.41703184973475</v>
+        <v>15.97974763234014</v>
       </c>
       <c r="C60">
-        <v>15.42048850279599</v>
+        <v>16.49717430723124</v>
       </c>
       <c r="D60">
-        <v>16.47931217271586</v>
+        <v>16.49232314142089</v>
       </c>
       <c r="E60">
-        <v>16.50425471628177</v>
+        <v>15.95365851204421</v>
       </c>
       <c r="F60">
-        <v>16.40923354957802</v>
+        <v>16.63080583647494</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>16.38534760529531</v>
+        <v>16.019586664224</v>
       </c>
       <c r="C61">
-        <v>15.43034326557615</v>
+        <v>16.46510770284526</v>
       </c>
       <c r="D61">
-        <v>16.44735945406568</v>
+        <v>16.46028148397131</v>
       </c>
       <c r="E61">
-        <v>16.4721517148216</v>
+        <v>15.99128382701961</v>
       </c>
       <c r="F61">
-        <v>16.37656069459314</v>
+        <v>16.62084390016106</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>16.35367379111042</v>
+        <v>16.06076030948633</v>
       </c>
       <c r="C62">
-        <v>15.44587172181339</v>
+        <v>16.43304142277423</v>
       </c>
       <c r="D62">
-        <v>16.41540649326755</v>
+        <v>16.42824014926229</v>
       </c>
       <c r="E62">
-        <v>16.44004903815814</v>
+        <v>16.03045300622453</v>
       </c>
       <c r="F62">
-        <v>16.34390995758825</v>
+        <v>16.61031521659154</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>16.32201043886389</v>
+        <v>16.10321373626485</v>
       </c>
       <c r="C63">
-        <v>15.46671828668578</v>
+        <v>16.40097546702587</v>
       </c>
       <c r="D63">
-        <v>16.38345333980315</v>
+        <v>16.3961991375009</v>
       </c>
       <c r="E63">
-        <v>16.40794668630642</v>
+        <v>16.07115367795215</v>
       </c>
       <c r="F63">
-        <v>16.31128134682602</v>
+        <v>16.59922401249459</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>16.29035757969923</v>
+        <v>16.14688616860841</v>
       </c>
       <c r="C64">
-        <v>15.49255514214208</v>
+        <v>16.36890983561804</v>
       </c>
       <c r="D64">
-        <v>16.35150003815444</v>
+        <v>16.36415844877801</v>
       </c>
       <c r="E64">
-        <v>16.37584465928306</v>
+        <v>16.11337205652892</v>
       </c>
       <c r="F64">
-        <v>16.27867487062626</v>
+        <v>16.58757477374161</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>16.25871524431156</v>
+        <v>16.19171036094259</v>
       </c>
       <c r="C65">
-        <v>15.52307831563754</v>
+        <v>16.33684452860527</v>
       </c>
       <c r="D65">
-        <v>16.31954662784583</v>
+        <v>16.3321180832629</v>
       </c>
       <c r="E65">
-        <v>16.34374295709912</v>
+        <v>16.15709246885143</v>
       </c>
       <c r="F65">
-        <v>16.24609053734715</v>
+        <v>16.57537222822003</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>16.22708346302542</v>
+        <v>16.2376120946422</v>
       </c>
       <c r="C66">
-        <v>15.55800465709357</v>
+        <v>16.30477954600633</v>
       </c>
       <c r="D66">
-        <v>16.28759314436186</v>
+        <v>16.30007804104813</v>
       </c>
       <c r="E66">
-        <v>16.3116415797719</v>
+        <v>16.20229703827128</v>
       </c>
       <c r="F66">
-        <v>16.21352835540716</v>
+        <v>16.56262131454968</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>16.1954622659054</v>
+        <v>16.28450946177078</v>
       </c>
       <c r="C67">
-        <v>15.59706942338398</v>
+        <v>16.27271488785484</v>
       </c>
       <c r="D67">
-        <v>16.25563961976744</v>
+        <v>16.2680383222554</v>
       </c>
       <c r="E67">
-        <v>16.27954052731165</v>
+        <v>16.24896522123876</v>
       </c>
       <c r="F67">
-        <v>16.18098833327152</v>
+        <v>16.54932715830322</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>16.16385168269526</v>
+        <v>16.3323123717512</v>
       </c>
       <c r="C68">
-        <v>15.64002428466088</v>
+        <v>16.24065055417501</v>
       </c>
       <c r="D68">
-        <v>16.22368608272351</v>
+        <v>16.235998926991</v>
       </c>
       <c r="E68">
-        <v>16.24743979973021</v>
+        <v>16.2970732467738</v>
       </c>
       <c r="F68">
-        <v>16.14847047946485</v>
+        <v>16.53549505736968</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>16.1322517429805</v>
+        <v>16.3809218885647</v>
       </c>
       <c r="C69">
-        <v>15.68663568734637</v>
+        <v>16.20858654497586</v>
       </c>
       <c r="D69">
-        <v>16.19173255926565</v>
+        <v>16.20395985533764</v>
       </c>
       <c r="E69">
-        <v>16.21533939703891</v>
+        <v>16.34659341585005</v>
       </c>
       <c r="F69">
-        <v>16.11597480256912</v>
+        <v>16.52113044694859</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>16.10066247616475</v>
+        <v>16.43022968319812</v>
       </c>
       <c r="C70">
-        <v>15.73668346795583</v>
+        <v>16.17652286027344</v>
       </c>
       <c r="D70">
-        <v>16.15977907305068</v>
+        <v>16.17192110738748</v>
       </c>
       <c r="E70">
-        <v>16.18323931924775</v>
+        <v>16.397493264064</v>
       </c>
       <c r="F70">
-        <v>16.08350131122754</v>
+        <v>16.50623889840795</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>16.06908391160707</v>
+        <v>16.48011746337543</v>
       </c>
       <c r="C71">
-        <v>15.78995964231907</v>
+        <v>16.14445950007788</v>
       </c>
       <c r="D71">
-        <v>16.1278256455295</v>
+        <v>16.13988268320384</v>
       </c>
       <c r="E71">
-        <v>16.15113956636932</v>
+        <v>16.44973453184302</v>
       </c>
       <c r="F71">
-        <v>16.05105001414608</v>
+        <v>16.49082608359923</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>16.03751607857473</v>
+        <v>16.5304564817782</v>
       </c>
       <c r="C72">
-        <v>15.84626737876669</v>
+        <v>16.11239646439848</v>
       </c>
       <c r="D72">
-        <v>16.09587229602688</v>
+        <v>16.10784458284967</v>
       </c>
       <c r="E72">
-        <v>16.11904013841518</v>
+        <v>16.50327195374067</v>
       </c>
       <c r="F72">
-        <v>16.01862092009345</v>
+        <v>16.47489777426106</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>16.00595900627846</v>
+        <v>16.58110716506361</v>
       </c>
       <c r="C73">
-        <v>15.90542011504845</v>
+        <v>16.08033375325348</v>
       </c>
       <c r="D73">
-        <v>16.06391904223335</v>
+        <v>16.07580680638107</v>
       </c>
       <c r="E73">
-        <v>16.08694103539862</v>
+        <v>16.55805181508077</v>
       </c>
       <c r="F73">
-        <v>15.98621403790447</v>
+        <v>16.45845981314526</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>15.97441272388967</v>
+        <v>16.6319186296455</v>
       </c>
       <c r="C74">
-        <v>15.96724074456825</v>
+        <v>16.04827136665633</v>
       </c>
       <c r="D74">
-        <v>16.031965900271</v>
+        <v>16.04376935384267</v>
       </c>
       <c r="E74">
-        <v>16.05484225733232</v>
+        <v>16.61401024218931</v>
       </c>
       <c r="F74">
-        <v>15.95382937647767</v>
+        <v>16.44151811086644</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>15.94287726055513</v>
+        <v>16.68272875618374</v>
       </c>
       <c r="C75">
-        <v>16.03156090605</v>
+        <v>16.01620930462496</v>
       </c>
       <c r="D75">
-        <v>16.00001288478689</v>
+        <v>16.01173222528407</v>
       </c>
       <c r="E75">
-        <v>16.02274380422949</v>
+        <v>16.67107120518641</v>
       </c>
       <c r="F75">
-        <v>15.92146694477889</v>
+        <v>16.42407862514568</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>15.91135264543697</v>
+        <v>16.733363867338</v>
       </c>
       <c r="C76">
-        <v>16.09822035443311</v>
+        <v>15.98414756717843</v>
       </c>
       <c r="D76">
-        <v>15.96806000917537</v>
+        <v>15.97969542074669</v>
       </c>
       <c r="E76">
-        <v>15.9906456761029</v>
+        <v>16.72914421661446</v>
       </c>
       <c r="F76">
-        <v>15.88912675184027</v>
+        <v>16.40614735333759</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>15.87983890770336</v>
+        <v>16.78363901457613</v>
       </c>
       <c r="C77">
-        <v>16.16706639468508</v>
+        <v>15.95208615433053</v>
       </c>
       <c r="D77">
-        <v>15.93610728573837</v>
+        <v>15.94765894027165</v>
       </c>
       <c r="E77">
-        <v>15.95854787296513</v>
+        <v>16.78812171932742</v>
       </c>
       <c r="F77">
-        <v>15.85680880676223</v>
+        <v>16.38773032124895</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>15.84833607657248</v>
+        <v>16.83335837089421</v>
       </c>
       <c r="C78">
-        <v>16.23795336646428</v>
+        <v>15.92002506609911</v>
       </c>
       <c r="D78">
-        <v>15.90415472586485</v>
+        <v>15.9156227839002</v>
       </c>
       <c r="E78">
-        <v>15.92645039482916</v>
+        <v>16.84787616993733</v>
       </c>
       <c r="F78">
-        <v>15.82451311871374</v>
+        <v>16.36883356942441</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>15.81684418129436</v>
+        <v>16.88231595526803</v>
       </c>
       <c r="C79">
-        <v>16.3107421806319</v>
+        <v>15.88796430249717</v>
       </c>
       <c r="D79">
-        <v>15.87220233974864</v>
+        <v>15.88358695166641</v>
       </c>
       <c r="E79">
-        <v>15.89435324170732</v>
+        <v>16.90825692779471</v>
       </c>
       <c r="F79">
-        <v>15.79223969693341</v>
+        <v>16.3494631512166</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>15.78536325118253</v>
+        <v>16.9302965805409</v>
       </c>
       <c r="C80">
-        <v>16.38529989741684</v>
+        <v>15.85590386353805</v>
       </c>
       <c r="D80">
-        <v>15.84025013702721</v>
+        <v>15.85155144360684</v>
       </c>
       <c r="E80">
-        <v>15.86225641361282</v>
+        <v>16.96908670909007</v>
       </c>
       <c r="F80">
-        <v>15.75998855073002</v>
+        <v>16.32962511520826</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>15.75389331561343</v>
+        <v>16.97707695570318</v>
       </c>
       <c r="C81">
-        <v>16.46149934849579</v>
+        <v>15.82384374923642</v>
       </c>
       <c r="D81">
-        <v>15.8082981263295</v>
+        <v>15.81951625975173</v>
       </c>
       <c r="E81">
-        <v>15.8301599105586</v>
+        <v>17.03015821277978</v>
       </c>
       <c r="F81">
-        <v>15.72775968948299</v>
+        <v>16.30932550739368</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>15.72243440402832</v>
+        <v>17.02242727345302</v>
       </c>
       <c r="C82">
-        <v>16.53921877748602</v>
+        <v>15.79178395960431</v>
       </c>
       <c r="D82">
-        <v>15.77634631562844</v>
+        <v>15.7874814001309</v>
       </c>
       <c r="E82">
-        <v>15.79806373255797</v>
+        <v>17.09123077143022</v>
       </c>
       <c r="F82">
-        <v>15.69555312264308</v>
+        <v>16.28857035708331</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>15.69098654595376</v>
+        <v>17.06611314573641</v>
       </c>
       <c r="C83">
-        <v>16.61834151002706</v>
+        <v>15.75972449465695</v>
       </c>
       <c r="D83">
-        <v>15.74439471244232</v>
+        <v>15.7554468647726</v>
       </c>
       <c r="E83">
-        <v>15.76596787962447</v>
+        <v>17.15202720193533</v>
       </c>
       <c r="F83">
-        <v>15.66336885973275</v>
+        <v>16.26736567859773</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>15.65954977098737</v>
+        <v>17.1078978548666</v>
       </c>
       <c r="C84">
-        <v>16.69875567452806</v>
+        <v>15.72766535440835</v>
       </c>
       <c r="D84">
-        <v>15.71244332348119</v>
+        <v>15.72341265370244</v>
       </c>
       <c r="E84">
-        <v>15.7338723517715</v>
+        <v>17.21223128375713</v>
       </c>
       <c r="F84">
-        <v>15.63120691034652</v>
+        <v>16.24571744805291</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>15.6281241088246</v>
+        <v>17.1475448625141</v>
       </c>
       <c r="C85">
-        <v>16.78035393017887</v>
+        <v>15.69560653887299</v>
       </c>
       <c r="D85">
-        <v>15.68049215522471</v>
+        <v>15.69137876694666</v>
       </c>
       <c r="E85">
-        <v>15.70177714901278</v>
+        <v>17.27148617527405</v>
       </c>
       <c r="F85">
-        <v>15.59906728415197</v>
+        <v>16.22363162454493</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>15.59670958924085</v>
+        <v>17.18482059391201</v>
       </c>
       <c r="C86">
-        <v>16.85942188259984</v>
+        <v>15.66354804806643</v>
       </c>
       <c r="D86">
-        <v>15.64854121363251</v>
+        <v>15.65934520452968</v>
       </c>
       <c r="E86">
-        <v>15.6696822713619</v>
+        <v>17.32939422505454</v>
       </c>
       <c r="F86">
-        <v>15.56694999088988</v>
+        <v>16.20111412473856</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>15.56530624211167</v>
+        <v>17.21949742588677</v>
       </c>
       <c r="C87">
-        <v>16.93239608583958</v>
+        <v>15.63148988200266</v>
       </c>
       <c r="D87">
-        <v>15.61659050415084</v>
+        <v>15.62731196647545</v>
       </c>
       <c r="E87">
-        <v>15.6375877188326</v>
+        <v>17.38551857399942</v>
       </c>
       <c r="F87">
-        <v>15.53485504037446</v>
+        <v>16.17817080588944</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>15.53391409741395</v>
+        <v>17.25135677038922</v>
       </c>
       <c r="C88">
-        <v>16.99939668092124</v>
+        <v>15.59943204069686</v>
       </c>
       <c r="D88">
-        <v>15.58464003184475</v>
+        <v>15.5952790528078</v>
       </c>
       <c r="E88">
-        <v>15.60549349143871</v>
+        <v>17.43938704511609</v>
       </c>
       <c r="F88">
-        <v>15.50278244249482</v>
+        <v>16.15480752570276</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>15.50253318522772</v>
+        <v>17.28019221842542</v>
       </c>
       <c r="C89">
-        <v>17.06054203621818</v>
+        <v>15.56737452416337</v>
       </c>
       <c r="D89">
-        <v>15.55268980140656</v>
+        <v>15.56324646354889</v>
       </c>
       <c r="E89">
-        <v>15.57339958919414</v>
+        <v>17.49049872547098</v>
       </c>
       <c r="F89">
-        <v>15.47073220721404</v>
+        <v>16.1310300513762</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>15.47116353573921</v>
+        <v>17.3058126124897</v>
       </c>
       <c r="C90">
-        <v>17.11594899428439</v>
+        <v>15.53531733241641</v>
       </c>
       <c r="D90">
-        <v>15.52073981726659</v>
+        <v>15.53121419872114</v>
       </c>
       <c r="E90">
-        <v>15.54130601211297</v>
+        <v>17.53833331070955</v>
       </c>
       <c r="F90">
-        <v>15.43870434457059</v>
+        <v>16.10684410986452</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>15.43980517924352</v>
+        <v>17.3280449410704</v>
       </c>
       <c r="C91">
-        <v>17.16573293226897</v>
+        <v>15.5032604654708</v>
       </c>
       <c r="D91">
-        <v>15.48879008355675</v>
+        <v>15.49918225834565</v>
       </c>
       <c r="E91">
-        <v>15.50921276020935</v>
+        <v>17.58236350873857</v>
       </c>
       <c r="F91">
-        <v>15.40669886467879</v>
+        <v>16.08225540282744</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>15.40845814614723</v>
+        <v>17.34673699984987</v>
       </c>
       <c r="C92">
-        <v>17.21000798305491</v>
+        <v>15.47120392334069</v>
       </c>
       <c r="D92">
-        <v>15.45684060408619</v>
+        <v>15.46715064244321</v>
       </c>
       <c r="E92">
-        <v>15.47711983349761</v>
+        <v>17.62206994046811</v>
       </c>
       <c r="F92">
-        <v>15.37471577772805</v>
+        <v>16.05726954516765</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>15.37712246697116</v>
+        <v>17.36175959764875</v>
       </c>
       <c r="C93">
-        <v>17.24888724633721</v>
+        <v>15.43914770604101</v>
       </c>
       <c r="D93">
-        <v>15.42489138239641</v>
+        <v>15.43511935103422</v>
       </c>
       <c r="E93">
-        <v>15.4450272319921</v>
+        <v>17.65695797170087</v>
       </c>
       <c r="F93">
-        <v>15.34275509398488</v>
+        <v>16.03189210952412</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>15.34579817235131</v>
+        <v>17.37300833924314</v>
       </c>
       <c r="C94">
-        <v>17.28248296691199</v>
+        <v>15.40709181358654</v>
       </c>
       <c r="D94">
-        <v>15.39294242180588</v>
+        <v>15.40308838413844</v>
       </c>
       <c r="E94">
-        <v>15.41293495570734</v>
+        <v>17.68657536853451</v>
       </c>
       <c r="F94">
-        <v>15.31081682379228</v>
+        <v>16.00612861697681</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>15.31448529304116</v>
+        <v>17.38040487970645</v>
       </c>
       <c r="C95">
-        <v>17.31090670389599</v>
+        <v>15.37503624599216</v>
       </c>
       <c r="D95">
-        <v>15.36099372542868</v>
+        <v>15.37105774177562</v>
       </c>
       <c r="E95">
-        <v>15.38084300465803</v>
+        <v>17.71052952525435</v>
       </c>
       <c r="F95">
-        <v>15.27890097757022</v>
+        <v>15.97998451604649</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>15.28318385991419</v>
+        <v>17.38389760184837</v>
       </c>
       <c r="C96">
-        <v>17.33426948718962</v>
+        <v>15.34298100327311</v>
       </c>
       <c r="D96">
-        <v>15.32904529619028</v>
+        <v>15.33902742396511</v>
       </c>
       <c r="E96">
-        <v>15.34875137885875</v>
+        <v>17.72850279287162</v>
       </c>
       <c r="F96">
-        <v>15.24700756581651</v>
+        <v>15.9534652034016</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>15.25189390396407</v>
+        <v>17.38346168504406</v>
       </c>
       <c r="C97">
-        <v>17.35268203697616</v>
+        <v>15.3109260854444</v>
       </c>
       <c r="D97">
-        <v>15.29709713681959</v>
+        <v>15.30699743072604</v>
       </c>
       <c r="E97">
-        <v>15.31666007832445</v>
+        <v>17.74026447181113</v>
       </c>
       <c r="F97">
-        <v>15.21513659910677</v>
+        <v>15.9265760100358</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>15.22061545630819</v>
+        <v>17.37909873146295</v>
       </c>
       <c r="C98">
-        <v>17.36625499676408</v>
+        <v>15.27887149252134</v>
       </c>
       <c r="D98">
-        <v>15.26514924989326</v>
+        <v>15.27496776207749</v>
       </c>
       <c r="E98">
-        <v>15.28456910307013</v>
+        <v>17.74567832960487</v>
       </c>
       <c r="F98">
-        <v>15.18328808809508</v>
+        <v>15.89932220045277</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>15.18934854818837</v>
+        <v>17.37083557036272</v>
       </c>
       <c r="C99">
-        <v>17.37509916025535</v>
+        <v>15.24681722451919</v>
       </c>
       <c r="D99">
-        <v>15.23320163779556</v>
+        <v>15.24293841803815</v>
       </c>
       <c r="E99">
-        <v>15.25247845311076</v>
+        <v>17.74470519141747</v>
       </c>
       <c r="F99">
-        <v>15.15146204351429</v>
+        <v>15.8717089851789</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>15.15809321097221</v>
+        <v>17.35872281244948</v>
       </c>
       <c r="C100">
-        <v>17.37932570569775</v>
+        <v>15.21476328145324</v>
       </c>
       <c r="D100">
-        <v>15.20125430280148</v>
+        <v>15.21090939862671</v>
       </c>
       <c r="E100">
-        <v>15.22038812846158</v>
+        <v>17.73740034876085</v>
       </c>
       <c r="F100">
-        <v>15.11965847617641</v>
+        <v>15.84374149969981</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>15.1268494761536</v>
+        <v>17.34283292998075</v>
       </c>
       <c r="C101">
-        <v>17.3790464576187</v>
+        <v>15.18270966333898</v>
       </c>
       <c r="D101">
-        <v>15.16930724701688</v>
+        <v>15.17888070386156</v>
       </c>
       <c r="E101">
-        <v>15.1882981291379</v>
+        <v>17.72390622556185</v>
       </c>
       <c r="F101">
-        <v>15.08787739697311</v>
+        <v>15.81542481781044</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>15.09561737535505</v>
+        <v>17.32325801604483</v>
       </c>
       <c r="C102">
-        <v>17.37437419036902</v>
+        <v>15.15065637019192</v>
       </c>
       <c r="D102">
-        <v>15.13736047245171</v>
+        <v>15.14685233376107</v>
       </c>
       <c r="E102">
-        <v>15.1562084551551</v>
+        <v>17.70444138795258</v>
       </c>
       <c r="F102">
-        <v>15.05611881687598</v>
+        <v>15.78676395514703</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>15.06439694032852</v>
+        <v>17.30010730844582</v>
       </c>
       <c r="C103">
-        <v>17.36542297720142</v>
+        <v>15.11860340202774</v>
       </c>
       <c r="D103">
-        <v>15.10541398098493</v>
+        <v>15.11482428834353</v>
       </c>
       <c r="E103">
-        <v>15.12411910652872</v>
+        <v>17.67928699714037</v>
       </c>
       <c r="F103">
-        <v>15.024382746937</v>
+        <v>15.75776385251118</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>15.03318820295656</v>
+        <v>17.27350463497621</v>
       </c>
       <c r="C104">
-        <v>17.3523085792859</v>
+        <v>15.08655075886222</v>
       </c>
       <c r="D104">
-        <v>15.07346777439279</v>
+        <v>15.08279656762701</v>
       </c>
       <c r="E104">
-        <v>15.0920300832744</v>
+        <v>17.64877213215973</v>
       </c>
       <c r="F104">
-        <v>14.99266919828898</v>
+        <v>15.72842939122117</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>15.0019911952529</v>
+        <v>17.24358570350542</v>
       </c>
       <c r="C105">
-        <v>17.33514888755506</v>
+        <v>15.05449844071121</v>
       </c>
       <c r="D105">
-        <v>15.04152185435908</v>
+        <v>15.0507691716297</v>
       </c>
       <c r="E105">
-        <v>15.05994138540792</v>
+        <v>17.61325891339956</v>
       </c>
       <c r="F105">
-        <v>14.96097818214582</v>
+        <v>15.69876538906152</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>14.97080594936461</v>
+        <v>17.21049554451571</v>
       </c>
       <c r="C106">
-        <v>17.31406441537088</v>
+        <v>15.02244644759074</v>
       </c>
       <c r="D106">
-        <v>15.00957622245676</v>
+        <v>15.01874210036975</v>
       </c>
       <c r="E106">
-        <v>15.02785301294516</v>
+        <v>17.57312863782213</v>
       </c>
       <c r="F106">
-        <v>14.92930970980304</v>
+        <v>15.66877659398748</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>14.9396324975736</v>
+        <v>17.17438601754991</v>
       </c>
       <c r="C107">
-        <v>17.28917886440555</v>
+        <v>14.99039477951692</v>
       </c>
       <c r="D107">
-        <v>14.97763088019563</v>
+        <v>14.98671535386507</v>
       </c>
       <c r="E107">
-        <v>14.99576496590213</v>
+        <v>17.52876952162589</v>
       </c>
       <c r="F107">
-        <v>14.89766379263814</v>
+        <v>15.63846769461176</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>14.90847087229336</v>
+        <v>17.13541347553059</v>
       </c>
       <c r="C108">
-        <v>17.26061976810025</v>
+        <v>14.95834343650594</v>
       </c>
       <c r="D108">
-        <v>14.94568582897629</v>
+        <v>14.9546889321338</v>
       </c>
       <c r="E108">
-        <v>14.96367724429497</v>
+        <v>17.48056647791645</v>
       </c>
       <c r="F108">
-        <v>14.86604044211096</v>
+        <v>15.60784331253295</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>14.87732110607787</v>
+        <v>17.09373664147367</v>
       </c>
       <c r="C109">
-        <v>17.22851921686766</v>
+        <v>14.92629241857417</v>
       </c>
       <c r="D109">
-        <v>14.91374107014999</v>
+        <v>14.92266283519404</v>
       </c>
       <c r="E109">
-        <v>14.93158984813994</v>
+        <v>17.42889291959486</v>
       </c>
       <c r="F109">
-        <v>14.83443966976411</v>
+        <v>15.57690800492626</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>14.84618323161205</v>
+        <v>17.04951466104707</v>
       </c>
       <c r="C110">
-        <v>17.19301466717127</v>
+        <v>14.89424172573805</v>
       </c>
       <c r="D110">
-        <v>14.88179660497309</v>
+        <v>14.8906370630637</v>
       </c>
       <c r="E110">
-        <v>14.89950277745343</v>
+        <v>17.37410479203246</v>
       </c>
       <c r="F110">
-        <v>14.8028614872234</v>
+        <v>15.54566626844254</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>14.81505728171939</v>
+        <v>17.00290547714634</v>
       </c>
       <c r="C111">
-        <v>17.15424982918843</v>
+        <v>14.86219135801416</v>
       </c>
       <c r="D111">
-        <v>14.84985243465618</v>
+        <v>14.85861161576094</v>
       </c>
       <c r="E111">
-        <v>14.86741603225196</v>
+        <v>17.31653642348057</v>
       </c>
       <c r="F111">
-        <v>14.77130590619822</v>
+        <v>15.51412253346886</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>14.78394328936482</v>
+        <v>16.95406440584742</v>
       </c>
       <c r="C112">
-        <v>17.11237561497672</v>
+        <v>14.83014131541918</v>
       </c>
       <c r="D112">
-        <v>14.81790856033092</v>
+        <v>14.82658649330388</v>
       </c>
       <c r="E112">
-        <v>14.83532961255217</v>
+        <v>17.25649801720326</v>
       </c>
       <c r="F112">
-        <v>14.73977293848191</v>
+        <v>15.48228116894629</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>14.75284128765132</v>
+        <v>16.90314294911279</v>
       </c>
       <c r="C113">
-        <v>17.06755116270536</v>
+        <v>14.79809159796994</v>
       </c>
       <c r="D113">
-        <v>14.7859649830839</v>
+        <v>14.79456169571058</v>
       </c>
       <c r="E113">
-        <v>14.80324351837084</v>
+        <v>17.19427445743385</v>
       </c>
       <c r="F113">
-        <v>14.70826259595225</v>
+        <v>15.45014648321403</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>14.72175130982417</v>
+        <v>16.85028784083127</v>
       </c>
       <c r="C114">
-        <v>17.0199447642656</v>
+        <v>14.76604220568336</v>
       </c>
       <c r="D114">
-        <v>14.75402170394317</v>
+        <v>14.76253722299923</v>
       </c>
       <c r="E114">
-        <v>14.77115774972487</v>
+        <v>17.13012511702372</v>
       </c>
       <c r="F114">
-        <v>14.67677489057178</v>
+        <v>15.41772272068609</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>14.69067338926823</v>
+        <v>16.79564031396975</v>
       </c>
       <c r="C115">
-        <v>16.96973467932815</v>
+        <v>14.73399313857652</v>
       </c>
       <c r="D115">
-        <v>14.72207872389174</v>
+        <v>14.73051307518807</v>
       </c>
       <c r="E115">
-        <v>14.73907230663129</v>
+        <v>17.06428448782232</v>
       </c>
       <c r="F115">
-        <v>14.64530983438827</v>
+        <v>15.38501406680765</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>14.65960755951124</v>
+        <v>16.739335518017</v>
       </c>
       <c r="C116">
-        <v>16.91710967284216</v>
+        <v>14.7019443966666</v>
       </c>
       <c r="D116">
-        <v>14.69013604384201</v>
+        <v>14.69848925229533</v>
       </c>
       <c r="E116">
-        <v>14.70698718910727</v>
+        <v>16.9969633033008</v>
       </c>
       <c r="F116">
-        <v>14.61386743953511</v>
+        <v>15.35202464681837</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>14.62855385422265</v>
+        <v>16.68150217170463</v>
       </c>
       <c r="C117">
-        <v>16.86226903512689</v>
+        <v>14.66989597997093</v>
       </c>
       <c r="D117">
-        <v>14.65819366469166</v>
+        <v>14.66646575433938</v>
       </c>
       <c r="E117">
-        <v>14.6749023971701</v>
+        <v>16.92835001780622</v>
       </c>
       <c r="F117">
-        <v>14.58244771823171</v>
+        <v>15.31875852513253</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>14.59751230721617</v>
+        <v>16.62226232557469</v>
       </c>
       <c r="C118">
-        <v>16.80542180469342</v>
+        <v>14.63784788850696</v>
       </c>
       <c r="D118">
-        <v>14.62625158728038</v>
+        <v>14.63444258133862</v>
       </c>
       <c r="E118">
-        <v>14.64281793083721</v>
+        <v>16.85861247661931</v>
       </c>
       <c r="F118">
-        <v>14.55105068278394</v>
+        <v>15.28521970955216</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>14.56648295244956</v>
+        <v>16.56173124499774</v>
       </c>
       <c r="C119">
-        <v>16.74678490080818</v>
+        <v>14.60580012229226</v>
       </c>
       <c r="D119">
-        <v>14.59430981238525</v>
+        <v>14.60241973331152</v>
       </c>
       <c r="E119">
-        <v>14.61073379012618</v>
+        <v>16.78789967768978</v>
       </c>
       <c r="F119">
-        <v>14.51967634558452</v>
+        <v>15.25141214832962</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>14.53546582402672</v>
+        <v>16.50001740751895</v>
       </c>
       <c r="C120">
-        <v>16.68657992446968</v>
+        <v>14.57375268134455</v>
       </c>
       <c r="D120">
-        <v>14.56236834078821</v>
+        <v>14.57039721027665</v>
       </c>
       <c r="E120">
-        <v>14.5786499750547</v>
+        <v>16.71634353817234</v>
       </c>
       <c r="F120">
-        <v>14.48832471911344</v>
+        <v>15.21733973267771</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>14.50446095619773</v>
+        <v>16.43722258824662</v>
       </c>
       <c r="C121">
-        <v>16.62502857179292</v>
+        <v>14.54170556568169</v>
       </c>
       <c r="D121">
-        <v>14.53042717321125</v>
+        <v>14.53837501225267</v>
       </c>
       <c r="E121">
-        <v>14.54656648564062</v>
+        <v>16.64406059218295</v>
       </c>
       <c r="F121">
-        <v>14.45699581593843</v>
+        <v>15.183006298221</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>14.47346838336006</v>
+        <v>16.37344200215282</v>
       </c>
       <c r="C122">
-        <v>16.5623469046702</v>
+        <v>14.50965877532164</v>
       </c>
       <c r="D122">
-        <v>14.49848631033781</v>
+        <v>14.5063531392583</v>
       </c>
       <c r="E122">
-        <v>14.51448332190193</v>
+        <v>16.57115363451869</v>
       </c>
       <c r="F122">
-        <v>14.4256896487153</v>
+        <v>15.14841562381891</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>14.44248814005908</v>
+        <v>16.30876451796581</v>
       </c>
       <c r="C123">
-        <v>16.4987391525813</v>
+        <v>14.47761231028255</v>
       </c>
       <c r="D123">
-        <v>14.4665457528398</v>
+        <v>14.47433159131239</v>
       </c>
       <c r="E123">
-        <v>14.48240048385673</v>
+        <v>16.49771324617111</v>
       </c>
       <c r="F123">
-        <v>14.39440623018841</v>
+        <v>15.11357143374164</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>14.41152026098902</v>
+        <v>16.2432729040648</v>
       </c>
       <c r="C124">
-        <v>16.43439198058823</v>
+        <v>14.44556617058265</v>
       </c>
       <c r="D124">
-        <v>14.43460550135068</v>
+        <v>14.44231036843388</v>
       </c>
       <c r="E124">
-        <v>14.4503179715233</v>
+        <v>16.42381914955955</v>
       </c>
       <c r="F124">
-        <v>14.36314557319114</v>
+        <v>15.07847739827638</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>14.38056478099362</v>
+        <v>16.17704409630089</v>
       </c>
       <c r="C125">
-        <v>16.3694701115451</v>
+        <v>14.41352035624037</v>
       </c>
       <c r="D125">
-        <v>14.40266555648136</v>
+        <v>14.4102894706418</v>
       </c>
       <c r="E125">
-        <v>14.41823578492005</v>
+        <v>16.34954146410606</v>
       </c>
       <c r="F125">
-        <v>14.33190769064617</v>
+        <v>15.04313713380718</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>14.34962173506708</v>
+        <v>16.11014949006686</v>
       </c>
       <c r="C126">
-        <v>16.30411400479855</v>
+        <v>14.38147486727423</v>
       </c>
       <c r="D126">
-        <v>14.37072591880461</v>
+        <v>14.3782688979553</v>
       </c>
       <c r="E126">
-        <v>14.38615392406552</v>
+        <v>16.27494188693733</v>
       </c>
       <c r="F126">
-        <v>14.30069259556614</v>
+        <v>15.00755420442564</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>14.31869115835493</v>
+        <v>16.0426552431815</v>
       </c>
       <c r="C127">
-        <v>16.23843959792366</v>
+        <v>14.34942970370293</v>
       </c>
       <c r="D127">
-        <v>14.33878658888423</v>
+        <v>14.34624865039364</v>
       </c>
       <c r="E127">
-        <v>14.35407238897841</v>
+        <v>16.20007465948336</v>
       </c>
       <c r="F127">
-        <v>14.26950030105385</v>
+        <v>14.97173212225612</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>14.28777308615498</v>
+        <v>15.97462258180247</v>
       </c>
       <c r="C128">
-        <v>16.17253997186164</v>
+        <v>14.31738486554528</v>
       </c>
       <c r="D128">
-        <v>14.30684756725814</v>
+        <v>14.31422872797616</v>
       </c>
       <c r="E128">
-        <v>14.32199117967757</v>
+        <v>16.12498746871949</v>
       </c>
       <c r="F128">
-        <v>14.23833082030281</v>
+        <v>14.93567434817877</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>14.25686755391794</v>
+        <v>15.9061081075257</v>
       </c>
       <c r="C129">
-        <v>16.10648803141028</v>
+        <v>14.28534035282027</v>
       </c>
       <c r="D129">
-        <v>14.27490885442684</v>
+        <v>14.28220913072238</v>
       </c>
       <c r="E129">
-        <v>14.28991029618199</v>
+        <v>16.04972226265486</v>
       </c>
       <c r="F129">
-        <v>14.20718416659773</v>
+        <v>14.89938429311401</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>14.22597459724823</v>
+        <v>15.83716409762338</v>
       </c>
       <c r="C130">
-        <v>16.04033978343266</v>
+        <v>14.25329616554701</v>
       </c>
       <c r="D130">
-        <v>14.24297045088551</v>
+        <v>14.25018985865188</v>
       </c>
       <c r="E130">
-        <v>14.25782973851081</v>
+        <v>15.97431597977181</v>
       </c>
       <c r="F130">
-        <v>14.17606035331481</v>
+        <v>14.86286531820518</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>14.19509425190512</v>
+        <v>15.76783879645268</v>
       </c>
       <c r="C131">
-        <v>15.97413759704218</v>
+        <v>14.22125230374479</v>
       </c>
       <c r="D131">
-        <v>14.21103235710436</v>
+        <v>14.21817091178439</v>
       </c>
       <c r="E131">
-        <v>14.22574950668332</v>
+        <v>15.89880115426688</v>
       </c>
       <c r="F131">
-        <v>14.14495939392231</v>
+        <v>14.82612073595676</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>14.16422655380348</v>
+        <v>15.69817669729278</v>
       </c>
       <c r="C132">
-        <v>15.90791315776702</v>
+        <v>14.189208767433</v>
       </c>
       <c r="D132">
-        <v>14.17909457352985</v>
+        <v>14.18615229013976</v>
       </c>
       <c r="E132">
-        <v>14.19366960071897</v>
+        <v>15.82320644046291</v>
       </c>
       <c r="F132">
-        <v>14.11388130198094</v>
+        <v>14.78915381100351</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>14.13337153901402</v>
+        <v>15.62821881161034</v>
       </c>
       <c r="C133">
-        <v>15.84168996758065</v>
+        <v>14.15716555663124</v>
       </c>
       <c r="D133">
-        <v>14.14715710059492</v>
+        <v>14.15413399373798</v>
       </c>
       <c r="E133">
-        <v>14.16159002063736</v>
+        <v>15.74755711121403</v>
       </c>
       <c r="F133">
-        <v>14.08282609114427</v>
+        <v>14.75196776077485</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>14.1025292437647</v>
+        <v>15.55800292509899</v>
       </c>
       <c r="C134">
-        <v>15.77548536896599</v>
+        <v>14.12512267135922</v>
       </c>
       <c r="D134">
-        <v>14.11521993871396</v>
+        <v>14.12211602259916</v>
       </c>
       <c r="E134">
-        <v>14.12951076645823</v>
+        <v>15.67187548411462</v>
       </c>
       <c r="F134">
-        <v>14.05179377515931</v>
+        <v>14.71456575630009</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>14.07169970444236</v>
+        <v>15.48756384142095</v>
       </c>
       <c r="C135">
-        <v>15.7093121430133</v>
+        <v>14.09308011163683</v>
       </c>
       <c r="D135">
-        <v>14.08328308828574</v>
+        <v>14.09009837674354</v>
       </c>
       <c r="E135">
-        <v>14.09743183820149</v>
+        <v>15.59618128916349</v>
       </c>
       <c r="F135">
-        <v>14.02078436786677</v>
+        <v>14.67695092296907</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>14.04088295759157</v>
+        <v>15.41693360700559</v>
       </c>
       <c r="C136">
-        <v>15.64317971165393</v>
+        <v>14.06103787748409</v>
       </c>
       <c r="D136">
-        <v>14.05134654969378</v>
+        <v>14.05808105619152</v>
       </c>
       <c r="E136">
-        <v>14.06535323588722</v>
+        <v>15.52049196781276</v>
       </c>
       <c r="F136">
-        <v>13.98979788320165</v>
+        <v>14.63912634141648</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>14.01007903991687</v>
+        <v>15.34614172568042</v>
       </c>
       <c r="C137">
-        <v>15.57709501165427</v>
+        <v>14.02899596892121</v>
       </c>
       <c r="D137">
-        <v>14.01941032330624</v>
+        <v>14.0260640609636</v>
       </c>
       <c r="E137">
-        <v>14.03327495953564</v>
+        <v>15.44482297073524</v>
       </c>
       <c r="F137">
-        <v>13.9588343351937</v>
+        <v>14.60109504797984</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>13.97928798828379</v>
+        <v>15.27521535799356</v>
       </c>
       <c r="C138">
-        <v>15.5110631924659</v>
+        <v>13.99695438596853</v>
       </c>
       <c r="D138">
-        <v>13.9874744094754</v>
+        <v>13.99404739108047</v>
       </c>
       <c r="E138">
-        <v>14.00119700916713</v>
+        <v>15.36918800119806</v>
       </c>
       <c r="F138">
-        <v>13.92789373796774</v>
+        <v>14.56286003574975</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>13.94850983971921</v>
+        <v>15.20417950675782</v>
       </c>
       <c r="C139">
-        <v>15.44508811409286</v>
+        <v>13.96491312864657</v>
       </c>
       <c r="D139">
-        <v>13.95553880854595</v>
+        <v>13.96203104656294</v>
       </c>
       <c r="E139">
-        <v>13.96911938480225</v>
+        <v>15.29359923851885</v>
       </c>
       <c r="F139">
-        <v>13.89697610574432</v>
+        <v>14.52442425525405</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>13.91774463141187</v>
+        <v>15.13305717434291</v>
       </c>
       <c r="C140">
-        <v>15.37917269432464</v>
+        <v>13.93287219697601</v>
       </c>
       <c r="D140">
-        <v>13.92360352085048</v>
+        <v>13.93001502743196</v>
       </c>
       <c r="E140">
-        <v>13.9370420864617</v>
+        <v>15.21806750297636</v>
       </c>
       <c r="F140">
-        <v>13.86608145284</v>
+        <v>14.48579061483116</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>13.88699240071387</v>
+        <v>15.06186956468736</v>
       </c>
       <c r="C141">
-        <v>15.31331917418632</v>
+        <v>13.90083159097767</v>
       </c>
       <c r="D141">
-        <v>13.89166854671208</v>
+        <v>13.89799933370863</v>
       </c>
       <c r="E141">
-        <v>13.90496511416637</v>
+        <v>15.14260243366018</v>
       </c>
       <c r="F141">
-        <v>13.8352097936679</v>
+        <v>14.44696198195668</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>13.85625318514172</v>
+        <v>14.9906361624029</v>
       </c>
       <c r="C142">
-        <v>15.24752930700881</v>
+        <v>13.86879131067258</v>
       </c>
       <c r="D142">
-        <v>13.85973388642624</v>
+        <v>13.86598396541422</v>
       </c>
       <c r="E142">
-        <v>13.8728884679373</v>
+        <v>15.06721262750207</v>
       </c>
       <c r="F142">
-        <v>13.80436114273821</v>
+        <v>14.40794118344671</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>13.82552702237628</v>
+        <v>14.91937498176246</v>
       </c>
       <c r="C143">
-        <v>15.1818044944044</v>
+        <v>13.83675135608189</v>
       </c>
       <c r="D143">
-        <v>13.82779954028662</v>
+        <v>13.83396892257015</v>
       </c>
       <c r="E143">
-        <v>13.8408121477957</v>
+        <v>14.99190577525592</v>
       </c>
       <c r="F143">
-        <v>13.77353551465854</v>
+        <v>14.36873100603873</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>13.7948139502643</v>
+        <v>14.84810255168382</v>
       </c>
       <c r="C144">
-        <v>15.11614588363686</v>
+        <v>13.80471172722695</v>
       </c>
       <c r="D144">
-        <v>13.79586550858967</v>
+        <v>13.80195420519798</v>
       </c>
       <c r="E144">
-        <v>13.80873615376296</v>
+        <v>14.91668875356334</v>
       </c>
       <c r="F144">
-        <v>13.74273292413449</v>
+        <v>14.32933419803548</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>13.76411400681942</v>
+        <v>14.77683416727262</v>
       </c>
       <c r="C145">
-        <v>15.05055443847688</v>
+        <v>13.77267242412927</v>
       </c>
       <c r="D145">
-        <v>13.76393179161832</v>
+        <v>13.76993981331943</v>
       </c>
       <c r="E145">
-        <v>13.77666048586062</v>
+        <v>14.84156773024947</v>
       </c>
       <c r="F145">
-        <v>13.71195338597012</v>
+        <v>14.28975346938728</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>13.73342723022258</v>
+        <v>14.70558387603656</v>
       </c>
       <c r="C146">
-        <v>14.98503099172974</v>
+        <v>13.74063344681052</v>
       </c>
       <c r="D146">
-        <v>13.73199838964947</v>
+        <v>13.7379257469564</v>
       </c>
       <c r="E146">
-        <v>13.74458514411041</v>
+        <v>14.76654824610407</v>
       </c>
       <c r="F146">
-        <v>13.68119691506832</v>
+        <v>14.24999149208524</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>13.70275365882308</v>
+        <v>14.6343646539933</v>
       </c>
       <c r="C147">
-        <v>14.91957627777906</v>
+        <v>13.70859479529257</v>
       </c>
       <c r="D147">
-        <v>13.70006530290824</v>
+        <v>13.70591200613093</v>
       </c>
       <c r="E147">
-        <v>13.71251012853424</v>
+        <v>14.69163529417616</v>
       </c>
       <c r="F147">
-        <v>13.65046352643149</v>
+        <v>14.21005089945159</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>13.67209333113959</v>
+        <v>14.5631884640778</v>
       </c>
       <c r="C148">
-        <v>14.85419096130504</v>
+        <v>13.67655646959744</v>
       </c>
       <c r="D148">
-        <v>13.66813253166261</v>
+        <v>13.67389859086525</v>
       </c>
       <c r="E148">
-        <v>13.68043543915418</v>
+        <v>14.61683337531099</v>
       </c>
       <c r="F148">
-        <v>13.6197532351618</v>
+        <v>14.16993429111503</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>13.64144628586121</v>
+        <v>14.49206632996886</v>
       </c>
       <c r="C149">
-        <v>14.7888756558552</v>
+        <v>13.64451846974733</v>
       </c>
       <c r="D149">
-        <v>13.63620007616133</v>
+        <v>13.64188550118173</v>
       </c>
       <c r="E149">
-        <v>13.64836107599249</v>
+        <v>14.54214655935663</v>
       </c>
       <c r="F149">
-        <v>13.58906605646182</v>
+        <v>14.12964423037274</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>13.61081256184769</v>
+        <v>14.42100845942324</v>
       </c>
       <c r="C150">
-        <v>14.72363093693034</v>
+        <v>13.61248079576464</v>
       </c>
       <c r="D150">
-        <v>13.60426793664513</v>
+        <v>13.60987273710293</v>
       </c>
       <c r="E150">
-        <v>13.6162870390716</v>
+        <v>14.46757853415575</v>
       </c>
       <c r="F150">
-        <v>13.55840200563508</v>
+        <v>14.08918324541088</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>13.58019219813084</v>
+        <v>14.35002425040897</v>
       </c>
       <c r="C151">
-        <v>14.65845735292057</v>
+        <v>13.58044344767192</v>
       </c>
       <c r="D151">
-        <v>13.57233611334364</v>
+        <v>13.57786029865156</v>
       </c>
       <c r="E151">
-        <v>13.58421332841412</v>
+        <v>14.39313264482295</v>
       </c>
       <c r="F151">
-        <v>13.52776109808627</v>
+        <v>14.04855382699858</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>13.54958523391598</v>
+        <v>14.27912242203302</v>
       </c>
       <c r="C152">
-        <v>14.59335543117964</v>
+        <v>13.54840642549193</v>
       </c>
       <c r="D152">
-        <v>13.54040460645377</v>
+        <v>13.54584818585053</v>
       </c>
       <c r="E152">
-        <v>13.55213994404286</v>
+        <v>14.31881194262835</v>
       </c>
       <c r="F152">
-        <v>13.49714334932187</v>
+        <v>14.00775843627422</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>13.51899170858154</v>
+        <v>14.20831100821813</v>
       </c>
       <c r="C153">
-        <v>14.52832568382996</v>
+        <v>13.51636972924759</v>
       </c>
       <c r="D153">
-        <v>13.50847341620535</v>
+        <v>13.51383639872292</v>
       </c>
       <c r="E153">
-        <v>13.5200668859808</v>
+        <v>14.24461920691799</v>
       </c>
       <c r="F153">
-        <v>13.46654877495082</v>
+        <v>13.96679950005982</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>13.48841166168083</v>
+        <v>14.13759746587109</v>
       </c>
       <c r="C154">
-        <v>14.46336860794758</v>
+        <v>13.48433335896201</v>
       </c>
       <c r="D154">
-        <v>13.47654254280787</v>
+        <v>13.48182493729196</v>
       </c>
       <c r="E154">
-        <v>13.4879941542511</v>
+        <v>14.17055699401985</v>
       </c>
       <c r="F154">
-        <v>13.43597739068515</v>
+        <v>13.92567941284345</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>13.45784513294306</v>
+        <v>14.06698868080591</v>
       </c>
       <c r="C155">
-        <v>14.39848469026923</v>
+        <v>13.45229731465851</v>
       </c>
       <c r="D155">
-        <v>13.44461198646546</v>
+        <v>13.44981380158109</v>
       </c>
       <c r="E155">
-        <v>13.45592174887713</v>
+        <v>14.09662765225461</v>
       </c>
       <c r="F155">
-        <v>13.40542921233961</v>
+        <v>13.88440053296621</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>13.42729216227413</v>
+        <v>13.99649103792061</v>
       </c>
       <c r="C156">
-        <v>14.33367441201542</v>
+        <v>13.42026159636056</v>
       </c>
       <c r="D156">
-        <v>13.41268174737055</v>
+        <v>13.41780299161393</v>
       </c>
       <c r="E156">
-        <v>13.42384966988244</v>
+        <v>14.02283333644345</v>
       </c>
       <c r="F156">
-        <v>13.3749042558329</v>
+        <v>13.84296519248662</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>13.39675278975702</v>
+        <v>13.92611045597368</v>
       </c>
       <c r="C157">
-        <v>14.26893824779521</v>
+        <v>13.38822620409186</v>
       </c>
       <c r="D157">
-        <v>13.38075182570752</v>
+        <v>13.38579250741426</v>
       </c>
       <c r="E157">
-        <v>13.39177791729075</v>
+        <v>13.94917605245813</v>
       </c>
       <c r="F157">
-        <v>13.34440253718831</v>
+        <v>13.80137569112354</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>13.36622705565331</v>
+        <v>13.85585241365168</v>
       </c>
       <c r="C158">
-        <v>14.20427666761545</v>
+        <v>13.35619113787627</v>
       </c>
       <c r="D158">
-        <v>13.34882222166605</v>
+        <v>13.35378234900607</v>
       </c>
       <c r="E158">
-        <v>13.35970649112601</v>
+        <v>13.87565763371989</v>
       </c>
       <c r="F158">
-        <v>13.31392407253429</v>
+        <v>13.7596342985749</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>13.33571500040456</v>
+        <v>13.78572201144016</v>
       </c>
       <c r="C159">
-        <v>14.1396901367797</v>
+        <v>13.32415639773787</v>
       </c>
       <c r="D159">
-        <v>13.31689293542628</v>
+        <v>13.32177251641354</v>
       </c>
       <c r="E159">
-        <v>13.32763539141234</v>
+        <v>13.80227980267227</v>
       </c>
       <c r="F159">
-        <v>13.28346887810384</v>
+        <v>13.71774325164449</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>13.30521666463194</v>
+        <v>13.7157239690359</v>
       </c>
       <c r="C160">
-        <v>14.07517911635359</v>
+        <v>13.29212198370091</v>
       </c>
       <c r="D160">
-        <v>13.28496396716382</v>
+        <v>13.28976300966102</v>
       </c>
       <c r="E160">
-        <v>13.29556461817407</v>
+        <v>13.72904414451139</v>
       </c>
       <c r="F160">
-        <v>13.25303697023601</v>
+        <v>13.67570476131667</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>13.27473208913812</v>
+        <v>13.64586268787815</v>
       </c>
       <c r="C161">
-        <v>14.01074406513156</v>
+        <v>13.26008789578987</v>
       </c>
       <c r="D161">
-        <v>13.25303531704625</v>
+        <v>13.25775382877307</v>
       </c>
       <c r="E161">
-        <v>13.26349417143572</v>
+        <v>13.65595215277066</v>
       </c>
       <c r="F161">
-        <v>13.2226283653766</v>
+        <v>13.63352100941103</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>13.24426131490836</v>
+        <v>13.57614224796575</v>
       </c>
       <c r="C162">
-        <v>13.94638543769735</v>
+        <v>13.22805413402941</v>
       </c>
       <c r="D162">
-        <v>13.22110698523962</v>
+        <v>13.22574497377444</v>
       </c>
       <c r="E162">
-        <v>13.23142405122202</v>
+        <v>13.58300522083219</v>
       </c>
       <c r="F162">
-        <v>13.19224308007851</v>
+        <v>13.59119414963121</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>13.213804383111</v>
+        <v>13.50656645606902</v>
       </c>
       <c r="C163">
-        <v>13.88210368767742</v>
+        <v>13.19602069844438</v>
       </c>
       <c r="D163">
-        <v>13.18917897190669</v>
+        <v>13.19373644469007</v>
       </c>
       <c r="E163">
-        <v>13.19935425755789</v>
+        <v>13.51020466548627</v>
       </c>
       <c r="F163">
-        <v>13.16188113100138</v>
+        <v>13.54872630606428</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>13.18336133509832</v>
+        <v>13.43713885064772</v>
       </c>
       <c r="C164">
-        <v>13.81789926654543</v>
+        <v>13.16398758905987</v>
       </c>
       <c r="D164">
-        <v>13.15725127720578</v>
+        <v>13.16172824154511</v>
       </c>
       <c r="E164">
-        <v>13.16728479046848</v>
+        <v>13.4375517256213</v>
       </c>
       <c r="F164">
-        <v>13.13154253491297</v>
+        <v>13.50611957739922</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>13.15293221240793</v>
+        <v>13.36786273165036</v>
       </c>
       <c r="C165">
-        <v>13.75377262238477</v>
+        <v>13.13195480590114</v>
       </c>
       <c r="D165">
-        <v>13.12532390129166</v>
+        <v>13.12972036436491</v>
       </c>
       <c r="E165">
-        <v>13.13521564997912</v>
+        <v>13.36504758143737</v>
       </c>
       <c r="F165">
-        <v>13.10122730868987</v>
+        <v>13.46337603610592</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>13.12251705676403</v>
+        <v>13.29874117827042</v>
       </c>
       <c r="C166">
-        <v>13.68972420251073</v>
+        <v>13.09992234899368</v>
       </c>
       <c r="D166">
-        <v>13.09339684430963</v>
+        <v>13.09771281317501</v>
       </c>
       <c r="E166">
-        <v>13.10314683611536</v>
+        <v>13.29269334603682</v>
       </c>
       <c r="F166">
-        <v>13.07093546931775</v>
+        <v>13.42049772842141</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>13.09211591007728</v>
+        <v>13.22977705919637</v>
       </c>
       <c r="C167">
-        <v>13.62575445217302</v>
+        <v>13.06789021836319</v>
       </c>
       <c r="D167">
-        <v>13.06147010640943</v>
+        <v>13.06570558800117</v>
       </c>
       <c r="E167">
-        <v>13.07107834890297</v>
+        <v>13.22049008901462</v>
       </c>
       <c r="F167">
-        <v>13.04066703389133</v>
+        <v>13.3774866732506</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>13.06172881444661</v>
+        <v>13.1609730618532</v>
       </c>
       <c r="C168">
-        <v>13.56186381588598</v>
+        <v>13.03585841403556</v>
       </c>
       <c r="D168">
-        <v>13.0295436877351</v>
+        <v>13.03369868886936</v>
       </c>
       <c r="E168">
-        <v>13.03901018836791</v>
+        <v>13.14843882294506</v>
       </c>
       <c r="F168">
-        <v>13.01042201961553</v>
+        <v>13.33434486521566</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>13.03135581216062</v>
+        <v>13.09233169072715</v>
       </c>
       <c r="C169">
-        <v>13.49805273716096</v>
+        <v>13.00382693603693</v>
       </c>
       <c r="D169">
-        <v>12.99761758842796</v>
+        <v>13.00169211580574</v>
       </c>
       <c r="E169">
-        <v>13.00694235453638</v>
+        <v>13.07654052590238</v>
       </c>
       <c r="F169">
-        <v>12.98020044380623</v>
+        <v>13.29107427535442</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>13.0009969456975</v>
+        <v>13.02385529604011</v>
       </c>
       <c r="C170">
-        <v>13.43432165840856</v>
+        <v>12.97179578439362</v>
       </c>
       <c r="D170">
-        <v>12.96569180862461</v>
+        <v>12.96968586883671</v>
       </c>
       <c r="E170">
-        <v>12.97487484743478</v>
+        <v>13.00479613129494</v>
       </c>
       <c r="F170">
-        <v>12.95000232389043</v>
+        <v>13.24767685013705</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>12.97065225772653</v>
+        <v>12.95554607284962</v>
       </c>
       <c r="C171">
-        <v>13.37067102113038</v>
+        <v>12.93976495913219</v>
       </c>
       <c r="D171">
-        <v>12.93376634845431</v>
+        <v>12.93767994798887</v>
       </c>
       <c r="E171">
-        <v>12.94280766708975</v>
+        <v>12.93320654341263</v>
       </c>
       <c r="F171">
-        <v>12.91982767740648</v>
+        <v>13.20415451109533</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>12.94032179110937</v>
+        <v>12.88740608257196</v>
       </c>
       <c r="C172">
-        <v>13.30710126625137</v>
+        <v>12.90773446027942</v>
       </c>
       <c r="D172">
-        <v>12.90184120805175</v>
+        <v>12.90567435328903</v>
       </c>
       <c r="E172">
-        <v>12.91074081352813</v>
+        <v>12.86177263268729</v>
       </c>
       <c r="F172">
-        <v>12.88967652200505</v>
+        <v>13.16050915645869</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>12.91000558890106</v>
+        <v>12.81943725617297</v>
       </c>
       <c r="C173">
-        <v>13.24361283412184</v>
+        <v>12.8757042878623</v>
       </c>
       <c r="D173">
-        <v>12.86991638754603</v>
+        <v>12.87366908476423</v>
       </c>
       <c r="E173">
-        <v>12.87867428677698</v>
+        <v>12.79049524574085</v>
       </c>
       <c r="F173">
-        <v>12.85954887545002</v>
+        <v>13.11674266315892</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>12.87970369435027</v>
+        <v>12.75164140210803</v>
       </c>
       <c r="C174">
-        <v>13.18020616447939</v>
+        <v>12.84367444190807</v>
       </c>
       <c r="D174">
-        <v>12.83799188706397</v>
+        <v>12.84166414244174</v>
       </c>
       <c r="E174">
-        <v>12.84660808686362</v>
+        <v>12.7193752021018</v>
       </c>
       <c r="F174">
-        <v>12.8294447556185</v>
+        <v>13.07285688522495</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>12.84941615090097</v>
+        <v>12.68402022442235</v>
       </c>
       <c r="C175">
-        <v>13.11688169632523</v>
+        <v>12.81164492244417</v>
       </c>
       <c r="D175">
-        <v>12.80606770672658</v>
+        <v>12.80965952634904</v>
       </c>
       <c r="E175">
-        <v>12.81454221381557</v>
+        <v>12.64841330309376</v>
       </c>
       <c r="F175">
-        <v>12.79936418050117</v>
+        <v>13.02885365380417</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>12.81914300219408</v>
+        <v>12.6165753343752</v>
       </c>
       <c r="C176">
-        <v>13.05363986846035</v>
+        <v>12.77961572949829</v>
       </c>
       <c r="D176">
-        <v>12.77414384665302</v>
+        <v>12.77765523651383</v>
       </c>
       <c r="E176">
-        <v>12.78247666766059</v>
+        <v>12.57761032719215</v>
       </c>
       <c r="F176">
-        <v>12.76930716820329</v>
+        <v>12.98473477771947</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>12.78888429206697</v>
+        <v>12.54930821830613</v>
       </c>
       <c r="C177">
-        <v>12.99048112037741</v>
+        <v>12.74758686309833</v>
       </c>
       <c r="D177">
-        <v>12.74222030696357</v>
+        <v>12.74565127296406</v>
       </c>
       <c r="E177">
-        <v>12.75041144842665</v>
+        <v>12.50696703909838</v>
       </c>
       <c r="F177">
-        <v>12.73927373694561</v>
+        <v>12.94050204669539</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>12.75864006455546</v>
+        <v>12.48222031661766</v>
       </c>
       <c r="C178">
-        <v>12.9274058912621</v>
+        <v>12.71555832327244</v>
       </c>
       <c r="D178">
-        <v>12.71029708777468</v>
+        <v>12.71364763572789</v>
       </c>
       <c r="E178">
-        <v>12.718346556142</v>
+        <v>12.43648418466274</v>
       </c>
       <c r="F178">
-        <v>12.70926390506428</v>
+        <v>12.89615722903748</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>12.72841036389512</v>
+        <v>12.41531297714217</v>
       </c>
       <c r="C179">
-        <v>12.86441462082333</v>
+        <v>12.68353011004902</v>
       </c>
       <c r="D179">
-        <v>12.67837418920085</v>
+        <v>12.68164432483373</v>
       </c>
       <c r="E179">
-        <v>12.68628199083509</v>
+        <v>12.36616249872859</v>
       </c>
       <c r="F179">
-        <v>12.67927769101131</v>
+        <v>12.85170207213825</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>12.69819523452188</v>
+        <v>12.34858744170535</v>
       </c>
       <c r="C180">
-        <v>12.80150774943028</v>
+        <v>12.65150222345668</v>
       </c>
       <c r="D180">
-        <v>12.64645161135173</v>
+        <v>12.64964134031023</v>
       </c>
       <c r="E180">
-        <v>12.65421775253464</v>
+        <v>12.29600270140642</v>
       </c>
       <c r="F180">
-        <v>12.64931511335554</v>
+        <v>12.80713830210332</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>12.66799472107279</v>
+        <v>12.2820449312339</v>
       </c>
       <c r="C181">
-        <v>12.73868571776049</v>
+        <v>12.61947466352428</v>
       </c>
       <c r="D181">
-        <v>12.61452935433779</v>
+        <v>12.61763868218625</v>
       </c>
       <c r="E181">
-        <v>12.62215384126957</v>
+        <v>12.22600550373439</v>
       </c>
       <c r="F181">
-        <v>12.61937619078369</v>
+        <v>12.76246762776927</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>12.63780886838757</v>
+        <v>12.21568657219877</v>
       </c>
       <c r="C182">
-        <v>12.67594896614897</v>
+        <v>12.58744743028094</v>
       </c>
       <c r="D182">
-        <v>12.58260741826738</v>
+        <v>12.58563635049092</v>
       </c>
       <c r="E182">
-        <v>12.59009025706909</v>
+        <v>12.15617160542824</v>
       </c>
       <c r="F182">
-        <v>12.58946094210003</v>
+        <v>12.7176917380181</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>12.60763772151019</v>
+        <v>12.14951342480592</v>
       </c>
       <c r="C183">
-        <v>12.61329793620771</v>
+        <v>12.55542052375601</v>
       </c>
       <c r="D183">
-        <v>12.55068580324678</v>
+        <v>12.55363434525361</v>
       </c>
       <c r="E183">
-        <v>12.55802699996263</v>
+        <v>12.08650169899949</v>
       </c>
       <c r="F183">
-        <v>12.55956938622709</v>
+        <v>12.67281230262088</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>12.57748132568852</v>
+        <v>12.08352651766902</v>
       </c>
       <c r="C184">
-        <v>12.55073306952032</v>
+        <v>12.52339394397911</v>
       </c>
       <c r="D184">
-        <v>12.51876450938047</v>
+        <v>12.52163266650393</v>
       </c>
       <c r="E184">
-        <v>12.52596406997989</v>
+        <v>12.01699646798309</v>
       </c>
       <c r="F184">
-        <v>12.52970154220655</v>
+        <v>12.62783097119668</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>12.54733972637636</v>
+        <v>12.01772680109231</v>
       </c>
       <c r="C185">
-        <v>12.48825480832452</v>
+        <v>12.49136769098007</v>
       </c>
       <c r="D185">
-        <v>12.48684353676993</v>
+        <v>12.48963131427174</v>
       </c>
       <c r="E185">
-        <v>12.4939014671508</v>
+        <v>11.94765659050286</v>
       </c>
       <c r="F185">
-        <v>12.4998574292003</v>
+        <v>12.58274937764322</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>12.51721296923492</v>
+        <v>11.95211518928538</v>
       </c>
       <c r="C186">
-        <v>12.42586359692456</v>
+        <v>12.45934176478901</v>
       </c>
       <c r="D186">
-        <v>12.45492288551699</v>
+        <v>12.45763028858714</v>
       </c>
       <c r="E186">
-        <v>12.46183919150556</v>
+        <v>11.87848273740807</v>
       </c>
       <c r="F186">
-        <v>12.47003706649008</v>
+        <v>12.53756913732775</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>12.48710110013302</v>
+        <v>11.88669255216898</v>
       </c>
       <c r="C187">
-        <v>12.36355988030165</v>
+        <v>12.4273161654363</v>
       </c>
       <c r="D187">
-        <v>12.42300255572134</v>
+        <v>12.42562958948051</v>
       </c>
       <c r="E187">
-        <v>12.42977724307462</v>
+        <v>11.80947557538175</v>
       </c>
       <c r="F187">
-        <v>12.44024047347828</v>
+        <v>12.49229184813525</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>12.45700416514836</v>
+        <v>11.82145970699444</v>
       </c>
       <c r="C188">
-        <v>12.30134410491455</v>
+        <v>12.39529089295256</v>
       </c>
       <c r="D188">
-        <v>12.39108254748133</v>
+        <v>12.39362921698246</v>
       </c>
       <c r="E188">
-        <v>12.3977156218887</v>
+        <v>11.74063576449587</v>
       </c>
       <c r="F188">
-        <v>12.41046766968881</v>
+        <v>12.44691908893193</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>12.42692221056905</v>
+        <v>11.75641744242261</v>
       </c>
       <c r="C189">
-        <v>12.23921671904404</v>
+        <v>12.3632659473687</v>
       </c>
       <c r="D189">
-        <v>12.3591628608934</v>
+        <v>12.36162917112389</v>
       </c>
       <c r="E189">
-        <v>12.36565432797878</v>
+        <v>11.67196396327552</v>
       </c>
       <c r="F189">
-        <v>12.38071867476827</v>
+        <v>12.40145242427972</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>12.39685528289492</v>
+        <v>11.69156650663087</v>
       </c>
       <c r="C190">
-        <v>12.17717817222415</v>
+        <v>12.33124132871584</v>
       </c>
       <c r="D190">
-        <v>12.32724349605207</v>
+        <v>12.32962945193593</v>
       </c>
       <c r="E190">
-        <v>12.33359336137611</v>
+        <v>11.603460826967</v>
       </c>
       <c r="F190">
-        <v>12.3509935084853</v>
+        <v>12.35589340154561</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>12.3668034288375</v>
+        <v>11.62690760807539</v>
       </c>
       <c r="C191">
-        <v>12.11522891393789</v>
+        <v>12.29921703702542</v>
       </c>
       <c r="D191">
-        <v>12.29532445305214</v>
+        <v>12.29763005944999</v>
       </c>
       <c r="E191">
-        <v>12.30153272211218</v>
+        <v>11.53512700283426</v>
       </c>
       <c r="F191">
-        <v>12.32129219073175</v>
+        <v>12.31024355209922</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>12.33676669532199</v>
+        <v>11.56244143349617</v>
       </c>
       <c r="C192">
-        <v>12.05336939619283</v>
+        <v>12.26719307232912</v>
       </c>
       <c r="D192">
-        <v>12.26340573198666</v>
+        <v>12.26563099369777</v>
       </c>
       <c r="E192">
-        <v>12.26947241021879</v>
+        <v>11.46696314243558</v>
       </c>
       <c r="F192">
-        <v>12.29161474152338</v>
+        <v>12.26450438940871</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>12.30674512948899</v>
+        <v>11.49816863174786</v>
       </c>
       <c r="C193">
-        <v>11.99160007137163</v>
+        <v>12.23516943465892</v>
       </c>
       <c r="D193">
-        <v>12.23148733294764</v>
+        <v>12.2336322547112</v>
       </c>
       <c r="E193">
-        <v>12.237412425728</v>
+        <v>11.3989698946245</v>
       </c>
       <c r="F193">
-        <v>12.2619611810011</v>
+        <v>12.21867741392833</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>12.27673877869418</v>
+        <v>11.43408982348279</v>
       </c>
       <c r="C194">
-        <v>11.92992139317475</v>
+        <v>12.20314612404705</v>
       </c>
       <c r="D194">
-        <v>12.19956925602466</v>
+        <v>12.2016338425225</v>
       </c>
       <c r="E194">
-        <v>12.20535276867215</v>
+        <v>11.33114789837187</v>
       </c>
       <c r="F194">
-        <v>12.23233152943024</v>
+        <v>12.1727641101723</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>12.24674769051022</v>
+        <v>11.37020561023453</v>
       </c>
       <c r="C195">
-        <v>11.868333818712</v>
+        <v>12.17112314052603</v>
       </c>
       <c r="D195">
-        <v>12.16765150130697</v>
+        <v>12.16963575716418</v>
       </c>
       <c r="E195">
-        <v>12.17329343908384</v>
+        <v>11.26349780052109</v>
       </c>
       <c r="F195">
-        <v>12.20272580720185</v>
+        <v>12.12676594787411</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>12.21677191272821</v>
+        <v>11.30651655777591</v>
       </c>
       <c r="C196">
-        <v>11.80683780667563</v>
+        <v>12.13910048412866</v>
       </c>
       <c r="D196">
-        <v>12.13573406888352</v>
+        <v>12.13763799866902</v>
       </c>
       <c r="E196">
-        <v>12.14123443699597</v>
+        <v>11.19602024509661</v>
       </c>
       <c r="F196">
-        <v>12.17314403483331</v>
+        <v>12.08068438056712</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>12.18681149335869</v>
+        <v>11.24302321603699</v>
       </c>
       <c r="C197">
-        <v>11.74543381801753</v>
+        <v>12.10707815488803</v>
       </c>
       <c r="D197">
-        <v>12.1038169588419</v>
+        <v>12.1056405670701</v>
       </c>
       <c r="E197">
-        <v>12.10917576244174</v>
+        <v>11.12871586866462</v>
       </c>
       <c r="F197">
-        <v>12.14358623296981</v>
+        <v>12.03452084905888</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>12.15686648063203</v>
+        <v>11.17972611260148</v>
       </c>
       <c r="C198">
-        <v>11.68412231681371</v>
+        <v>12.07505615283752</v>
       </c>
       <c r="D198">
-        <v>12.07190017126886</v>
+        <v>12.07364346240074</v>
       </c>
       <c r="E198">
-        <v>12.07711741545461</v>
+        <v>11.06158531358261</v>
       </c>
       <c r="F198">
-        <v>12.11405242238321</v>
+        <v>11.98827677997431</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>12.12693692300033</v>
+        <v>11.11662574849475</v>
       </c>
       <c r="C199">
-        <v>11.62290376905333</v>
+        <v>12.04303447801079</v>
       </c>
       <c r="D199">
-        <v>12.0399837062485</v>
+        <v>12.04164668469459</v>
       </c>
       <c r="E199">
-        <v>12.04505939606835</v>
+        <v>10.99462922032462</v>
       </c>
       <c r="F199">
-        <v>12.08454262397376</v>
+        <v>11.94195358615769</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>12.09702286913926</v>
+        <v>11.05372261144836</v>
       </c>
       <c r="C200">
-        <v>11.56177863961067</v>
+        <v>12.01101313044179</v>
       </c>
       <c r="D200">
-        <v>12.00806756386615</v>
+        <v>12.00965023398558</v>
       </c>
       <c r="E200">
-        <v>12.01300170431702</v>
+        <v>10.92784822642905</v>
       </c>
       <c r="F200">
-        <v>12.05505685877053</v>
+        <v>11.89555266580565</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>12.06712436794747</v>
+        <v>10.99101716858069</v>
       </c>
       <c r="C201">
-        <v>11.50074739759167</v>
+        <v>11.97899211016477</v>
       </c>
       <c r="D201">
-        <v>11.97615174420573</v>
+        <v>11.97765411030795</v>
       </c>
       <c r="E201">
-        <v>11.98094434023499</v>
+        <v>10.86124297126817</v>
       </c>
       <c r="F201">
-        <v>12.02559514793301</v>
+        <v>11.84907540478082</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>12.03724146854894</v>
+        <v>10.92850986786885</v>
       </c>
       <c r="C202">
-        <v>11.43981051502093</v>
+        <v>11.94697141721431</v>
       </c>
       <c r="D202">
-        <v>11.94423624735035</v>
+        <v>11.94565831369621</v>
       </c>
       <c r="E202">
-        <v>11.9488873038569</v>
+        <v>10.79481409411756</v>
       </c>
       <c r="F202">
-        <v>11.99615751274976</v>
+        <v>11.80252317631021</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>12.00737422029441</v>
+        <v>10.86620114462044</v>
       </c>
       <c r="C203">
-        <v>11.37896846471942</v>
+        <v>11.91495105162526</v>
       </c>
       <c r="D203">
-        <v>11.91232107338226</v>
+        <v>11.91366284418518</v>
       </c>
       <c r="E203">
-        <v>11.91683059521774</v>
+        <v>10.72856223347001</v>
       </c>
       <c r="F203">
-        <v>11.9667439746404</v>
+        <v>11.75589734081109</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>11.97752267276204</v>
+        <v>10.8040914160693</v>
       </c>
       <c r="C204">
-        <v>11.31822172335579</v>
+        <v>11.88293101343279</v>
       </c>
       <c r="D204">
-        <v>11.88040622238229</v>
+        <v>11.88166770181001</v>
       </c>
       <c r="E204">
-        <v>11.88477421435275</v>
+        <v>10.66248802860219</v>
       </c>
       <c r="F204">
-        <v>11.93735455515598</v>
+        <v>11.7091992454487</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>11.94768687575833</v>
+        <v>10.74218108541314</v>
       </c>
       <c r="C205">
-        <v>11.25757077037248</v>
+        <v>11.85091130267236</v>
       </c>
       <c r="D205">
-        <v>11.84849169443167</v>
+        <v>11.84967288660613</v>
       </c>
       <c r="E205">
-        <v>11.85271816129755</v>
+        <v>10.59659211943402</v>
       </c>
       <c r="F205">
-        <v>11.9079892759805</v>
+        <v>11.6624302255514</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>11.91786687931989</v>
+        <v>10.68047054432982</v>
       </c>
       <c r="C206">
-        <v>11.19701608766924</v>
+        <v>11.81889191937977</v>
       </c>
       <c r="D206">
-        <v>11.81657748961061</v>
+        <v>11.81767839860929</v>
       </c>
       <c r="E206">
-        <v>11.82066243608802</v>
+        <v>10.53087514558068</v>
       </c>
       <c r="F206">
-        <v>11.87864815892963</v>
+        <v>11.61559160517265</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>11.88806273371514</v>
+        <v>10.61896016742478</v>
       </c>
       <c r="C207">
-        <v>11.13655816000958</v>
+        <v>11.78687286359114</v>
       </c>
       <c r="D207">
-        <v>11.78466360799875</v>
+        <v>11.78568423785557</v>
       </c>
       <c r="E207">
-        <v>11.78860703876039</v>
+        <v>10.46533774757458</v>
       </c>
       <c r="F207">
-        <v>11.84933122595278</v>
+        <v>11.56868469649454</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>11.85827448944401</v>
+        <v>10.55765032045318</v>
       </c>
       <c r="C208">
-        <v>11.07619747534894</v>
+        <v>11.75485413534289</v>
       </c>
       <c r="D208">
-        <v>11.75275004967484</v>
+        <v>11.75369040438134</v>
       </c>
       <c r="E208">
-        <v>11.75655196935119</v>
+        <v>10.39998056708122</v>
       </c>
       <c r="F208">
-        <v>11.82003849913338</v>
+        <v>11.5217107997124</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>11.82850219724022</v>
+        <v>10.49654135696513</v>
       </c>
       <c r="C209">
-        <v>11.01593452283075</v>
+        <v>11.72283573467175</v>
       </c>
       <c r="D209">
-        <v>11.72083681471703</v>
+        <v>11.7216968982233</v>
       </c>
       <c r="E209">
-        <v>11.72449722789728</v>
+        <v>10.33480424550742</v>
       </c>
       <c r="F209">
-        <v>11.79077000069048</v>
+        <v>11.4746712037531</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>11.79874590807297</v>
+        <v>10.43563361673715</v>
       </c>
       <c r="C210">
-        <v>10.95576979530733</v>
+        <v>11.69081766161482</v>
       </c>
       <c r="D210">
-        <v>11.68892390320341</v>
+        <v>11.68970371941851</v>
       </c>
       <c r="E210">
-        <v>11.69244281443587</v>
+        <v>10.26980942505564</v>
       </c>
       <c r="F210">
-        <v>11.76152575297744</v>
+        <v>11.42756718747487</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>11.76900567314706</v>
+        <v>10.37492743201433</v>
       </c>
       <c r="C211">
-        <v>10.89570378828054</v>
+        <v>11.65879991620951</v>
       </c>
       <c r="D211">
-        <v>11.65701131521138</v>
+        <v>11.65771086800432</v>
       </c>
       <c r="E211">
-        <v>11.66038872900447</v>
+        <v>10.20499674944967</v>
       </c>
       <c r="F211">
-        <v>11.73230577848404</v>
+        <v>11.38040001876861</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>11.7392815439045</v>
+        <v>10.31442312365454</v>
       </c>
       <c r="C212">
-        <v>10.83573699961095</v>
+        <v>11.62678249849356</v>
       </c>
       <c r="D212">
-        <v>11.62509905081792</v>
+        <v>11.62571834401841</v>
       </c>
       <c r="E212">
-        <v>11.62833497164095</v>
+        <v>10.14036686240264</v>
       </c>
       <c r="F212">
-        <v>11.70311009983682</v>
+        <v>11.33317095469802</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>11.70957357202616</v>
+        <v>10.2541210019499</v>
       </c>
       <c r="C213">
-        <v>10.77586993140966</v>
+        <v>11.59476540850505</v>
       </c>
       <c r="D213">
-        <v>11.59318711009909</v>
+        <v>11.59372614749883</v>
       </c>
       <c r="E213">
-        <v>11.5962815423835</v>
+        <v>10.07592040820668</v>
       </c>
       <c r="F213">
-        <v>11.67393873980056</v>
+        <v>11.28588124168329</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>11.67988180943319</v>
+        <v>10.19402136975242</v>
       </c>
       <c r="C214">
-        <v>10.71610308939035</v>
+        <v>11.5627486462824</v>
       </c>
       <c r="D214">
-        <v>11.56127549313095</v>
+        <v>11.56173427848394</v>
       </c>
       <c r="E214">
-        <v>11.56422844127069</v>
+        <v>10.01165803266665</v>
       </c>
       <c r="F214">
-        <v>11.64479172127714</v>
+        <v>11.23853211714129</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>11.65020630828711</v>
+        <v>10.13412451973929</v>
       </c>
       <c r="C215">
-        <v>10.65643698234046</v>
+        <v>11.53073221186438</v>
       </c>
       <c r="D215">
-        <v>11.52936419998925</v>
+        <v>11.52974273701248</v>
       </c>
       <c r="E215">
-        <v>11.5321756683414</v>
+        <v>9.947580381933895</v>
       </c>
       <c r="F215">
-        <v>11.61566906730753</v>
+        <v>11.19112480839763</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>11.620547120992</v>
+        <v>10.07443073649708</v>
       </c>
       <c r="C216">
-        <v>10.59687212302766</v>
+        <v>11.49871610529013</v>
       </c>
       <c r="D216">
-        <v>11.4974532307493</v>
+        <v>11.49775152312349</v>
       </c>
       <c r="E216">
-        <v>11.50012322363485</v>
+        <v>9.883688102753247</v>
       </c>
       <c r="F216">
-        <v>11.58657080107228</v>
+        <v>11.14366053301427</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>11.59090430019651</v>
+        <v>10.01494029733106</v>
       </c>
       <c r="C217">
-        <v>10.53740902803067</v>
+        <v>11.46670032659911</v>
       </c>
       <c r="D217">
-        <v>11.46554258548608</v>
+        <v>11.46576063685639</v>
       </c>
       <c r="E217">
-        <v>11.46807110719067</v>
+        <v>9.819981843116377</v>
       </c>
       <c r="F217">
-        <v>11.55749694589288</v>
+        <v>11.09614049858528</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>11.56127789879328</v>
+        <v>9.955653470151997</v>
       </c>
       <c r="C218">
-        <v>10.47804821541802</v>
+        <v>11.43468487583114</v>
       </c>
       <c r="D218">
-        <v>11.43363226427363</v>
+        <v>11.43377007825095</v>
       </c>
       <c r="E218">
-        <v>11.43601931904879</v>
+        <v>9.756462251601754</v>
       </c>
       <c r="F218">
-        <v>11.52844752523069</v>
+        <v>11.04856590464398</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>11.53166796992143</v>
+        <v>9.896570516963799</v>
       </c>
       <c r="C219">
-        <v>10.41879020808604</v>
+        <v>11.40266975302642</v>
       </c>
       <c r="D219">
-        <v>11.40172226718652</v>
+        <v>11.40177984734731</v>
       </c>
       <c r="E219">
-        <v>11.40396785924956</v>
+        <v>9.693129977431676</v>
       </c>
       <c r="F219">
-        <v>11.49942256268899</v>
+        <v>11.00093794148321</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>11.50207456696798</v>
+        <v>9.837691692246203</v>
       </c>
       <c r="C220">
-        <v>10.3596355309506</v>
+        <v>11.3706549582255</v>
       </c>
       <c r="D220">
-        <v>11.36981259429877</v>
+        <v>11.36978994418597</v>
       </c>
       <c r="E220">
-        <v>11.37191672783365</v>
+        <v>9.629985670912593</v>
       </c>
       <c r="F220">
-        <v>11.47042208201345</v>
+        <v>10.95325779060868</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>11.47249774356897</v>
+        <v>9.7790172425786</v>
       </c>
       <c r="C221">
-        <v>10.30058471211697</v>
+        <v>11.33864049146933</v>
       </c>
       <c r="D221">
-        <v>11.33790324568418</v>
+        <v>11.33780036880778</v>
       </c>
       <c r="E221">
-        <v>11.33986592484211</v>
+        <v>9.567029982990153</v>
       </c>
       <c r="F221">
-        <v>11.44144610709344</v>
+        <v>10.90552662426771</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>11.44293755361006</v>
+        <v>9.720547409157026</v>
       </c>
       <c r="C222">
-        <v>10.2416382842548</v>
+        <v>11.30662635279919</v>
       </c>
       <c r="D222">
-        <v>11.30599422141617</v>
+        <v>11.30581112125398</v>
       </c>
       <c r="E222">
-        <v>11.30781545031638</v>
+        <v>9.504263565137027</v>
       </c>
       <c r="F222">
-        <v>11.41249466196106</v>
+        <v>10.8577456074957</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.41339405122861</v>
+        <v>9.662282426114377</v>
       </c>
       <c r="C223">
-        <v>10.18279678425316</v>
+        <v>11.27461254225677</v>
       </c>
       <c r="D223">
-        <v>11.27408552156774</v>
+        <v>11.27382220156618</v>
       </c>
       <c r="E223">
-        <v>11.27576530429828</v>
+        <v>9.441687069912469</v>
       </c>
       <c r="F223">
-        <v>11.38356777079318</v>
+        <v>10.80991589691004</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>11.38386729081563</v>
+        <v>9.604222520961653</v>
       </c>
       <c r="C224">
-        <v>10.12406075250412</v>
+        <v>11.24259905988411</v>
       </c>
       <c r="D224">
-        <v>11.24217714621214</v>
+        <v>11.24183360978638</v>
       </c>
       <c r="E224">
-        <v>11.24371548683001</v>
+        <v>9.379301150441018</v>
       </c>
       <c r="F224">
-        <v>11.35466545791195</v>
+        <v>10.76203864124311</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>11.35435732701531</v>
+        <v>9.546367915975926</v>
       </c>
       <c r="C225">
-        <v>10.06543073533333</v>
+        <v>11.21058590572369</v>
       </c>
       <c r="D225">
-        <v>11.2102690954223</v>
+        <v>11.20984534595697</v>
       </c>
       <c r="E225">
-        <v>11.21166599795414</v>
+        <v>9.317106460183281</v>
       </c>
       <c r="F225">
-        <v>11.32578774778603</v>
+        <v>10.71411498069519</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>11.32486421472759</v>
+        <v>9.488718826807714</v>
       </c>
       <c r="C226">
-        <v>10.00690728295043</v>
+        <v>11.17857307981834</v>
       </c>
       <c r="D226">
-        <v>11.178361369271</v>
+        <v>11.17785741012069</v>
       </c>
       <c r="E226">
-        <v>11.17961683771364</v>
+        <v>9.25510365365137</v>
       </c>
       <c r="F226">
-        <v>11.29693466502974</v>
+        <v>10.66614604903216</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>11.29538800911038</v>
+        <v>9.431275463630707</v>
       </c>
       <c r="C227">
-        <v>9.9484909475224</v>
+        <v>11.14656058221128</v>
       </c>
       <c r="D227">
-        <v>11.14645396783069</v>
+        <v>11.14586980232071</v>
       </c>
       <c r="E227">
-        <v>11.14756800615192</v>
+        <v>9.193293385808515</v>
       </c>
       <c r="F227">
-        <v>11.26810623440505</v>
+        <v>10.6181329723948</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.26592876557918</v>
+        <v>9.374038031354921</v>
       </c>
       <c r="C228">
-        <v>9.890182287521526</v>
+        <v>11.11454841294615</v>
       </c>
       <c r="D228">
-        <v>11.11454689117376</v>
+        <v>11.11388252260059</v>
       </c>
       <c r="E228">
-        <v>11.11551950331274</v>
+        <v>9.131676311830629</v>
       </c>
       <c r="F228">
-        <v>11.2393024808222</v>
+        <v>10.57007686986336</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>11.2364865398084</v>
+        <v>9.317006728702943</v>
       </c>
       <c r="C229">
-        <v>9.83198186244168</v>
+        <v>11.08253657206699</v>
       </c>
       <c r="D229">
-        <v>11.08264013937267</v>
+        <v>11.08189557100431</v>
       </c>
       <c r="E229">
-        <v>11.08347132924027</v>
+        <v>9.07025308775845</v>
       </c>
       <c r="F229">
-        <v>11.21052342934077</v>
+        <v>10.52197885278466</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>11.20706138773345</v>
+        <v>9.260181749793302</v>
       </c>
       <c r="C230">
-        <v>9.77389023575771</v>
+        <v>11.05052505961826</v>
       </c>
       <c r="D230">
-        <v>11.05073371249971</v>
+        <v>11.04990894757623</v>
       </c>
       <c r="E230">
-        <v>11.05142348397912</v>
+        <v>9.009024369969348</v>
       </c>
       <c r="F230">
-        <v>11.18176910516901</v>
+        <v>10.4738400266953</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>11.17765336555178</v>
+        <v>9.203563283362874</v>
       </c>
       <c r="C231">
-        <v>9.715907975672305</v>
+        <v>11.01851387564482</v>
       </c>
       <c r="D231">
-        <v>11.01882761062715</v>
+        <v>11.01792265236113</v>
       </c>
       <c r="E231">
-        <v>11.0193759675743</v>
+        <v>8.9479908149734</v>
       </c>
       <c r="F231">
-        <v>11.15303953366575</v>
+        <v>10.42566149033356</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>11.14826252972675</v>
+        <v>9.147151512662484</v>
       </c>
       <c r="C232">
-        <v>9.658035654941745</v>
+        <v>10.98650302019194</v>
       </c>
       <c r="D232">
-        <v>10.98692183382693</v>
+        <v>10.9859366854042</v>
       </c>
       <c r="E232">
-        <v>10.98732878007124</v>
+        <v>8.887153079886318</v>
       </c>
       <c r="F232">
-        <v>11.12433474034147</v>
+        <v>10.37744433609666</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>11.11888893698759</v>
+        <v>9.090946616509841</v>
       </c>
       <c r="C233">
-        <v>9.600273850223157</v>
+        <v>10.95449249330533</v>
       </c>
       <c r="D233">
-        <v>10.95501638217123</v>
+        <v>10.95395104675109</v>
       </c>
       <c r="E233">
-        <v>10.95528192151579</v>
+        <v>8.826511822035066</v>
       </c>
       <c r="F233">
-        <v>11.0956547508591</v>
+        <v>10.32918964960495</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>11.08953264432544</v>
+        <v>9.034948768302083</v>
       </c>
       <c r="C234">
-        <v>9.542623147114169</v>
+        <v>10.92248229503113</v>
       </c>
       <c r="D234">
-        <v>10.9231112557322</v>
+        <v>10.92196573644784</v>
       </c>
       <c r="E234">
-        <v>10.92323539195425</v>
+        <v>8.766067698744562</v>
       </c>
       <c r="F234">
-        <v>11.06699959103248</v>
+        <v>10.2808985110173</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>11.0601937090009</v>
+        <v>8.979158136479086</v>
       </c>
       <c r="C235">
-        <v>9.485084134566563</v>
+        <v>10.89047242541591</v>
       </c>
       <c r="D235">
-        <v>10.89120645458194</v>
+        <v>10.88998075454093</v>
       </c>
       <c r="E235">
-        <v>10.89118919143332</v>
+        <v>8.705821367716998</v>
       </c>
       <c r="F235">
-        <v>11.03836928682926</v>
+        <v>10.23257199464481</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>11.03087218854345</v>
+        <v>8.923574885481155</v>
       </c>
       <c r="C236">
-        <v>9.427657403116184</v>
+        <v>10.85846288450668</v>
       </c>
       <c r="D236">
-        <v>10.85930197879258</v>
+        <v>10.85799610107726</v>
       </c>
       <c r="E236">
-        <v>10.8591433200002</v>
+        <v>8.645773486698765</v>
       </c>
       <c r="F236">
-        <v>11.009763864371</v>
+        <v>10.18421116911438</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>11.00156814075465</v>
+        <v>8.868199175117496</v>
       </c>
       <c r="C237">
-        <v>9.370343548313519</v>
+        <v>10.82645367235088</v>
       </c>
       <c r="D237">
-        <v>10.82739782843607</v>
+        <v>10.82601177610421</v>
       </c>
       <c r="E237">
-        <v>10.82709777770248</v>
+        <v>8.585924713247625</v>
       </c>
       <c r="F237">
-        <v>10.98118334993389</v>
+        <v>10.13581709678062</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>10.97228162371454</v>
+        <v>8.813031159941659</v>
       </c>
       <c r="C238">
-        <v>9.313143168865409</v>
+        <v>10.79444478899641</v>
       </c>
       <c r="D238">
-        <v>10.79549400358469</v>
+        <v>10.79402777966961</v>
       </c>
       <c r="E238">
-        <v>10.79505256458822</v>
+        <v>8.526275705065366</v>
       </c>
       <c r="F238">
-        <v>10.9526277699518</v>
+        <v>10.08739083532166</v>
       </c>
     </row>
   </sheetData>
